--- a/Week6/docs/SE1601_SWP391_OnlineShop_ProductBacklog_W6.xlsx
+++ b/Week6/docs/SE1601_SWP391_OnlineShop_ProductBacklog_W6.xlsx
@@ -79,9 +79,6 @@
     <t>seller views and manages all products</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Orders List [Sale]</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   <si>
     <t>Contains information with embedded google map and current recruitment information</t>
   </si>
+  <si>
+    <t>Pending</t>
+  </si>
 </sst>
 </file>
 
@@ -157,8 +157,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="34">
@@ -265,21 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -287,8 +272,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,9 +296,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,23 +342,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,6 +357,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -366,43 +396,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,19 +477,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,55 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,13 +531,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +579,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,7 +621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,19 +633,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,16 +708,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,18 +748,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,27 +772,34 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -801,7 +807,7 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,89 +825,89 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,44 +916,44 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1009,6 +1015,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,7 +1036,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1428,8 +1437,8 @@
   <sheetPr/>
   <dimension ref="A1:I982"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1437,8 +1446,7 @@
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="55.7083333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.2833333333333" customWidth="1"/>
-    <col min="5" max="6" width="21.2833333333333" customWidth="1"/>
+    <col min="4" max="6" width="21.2833333333333" customWidth="1"/>
     <col min="7" max="7" width="18.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.1" customWidth="1"/>
     <col min="9" max="9" width="16.125" customWidth="1"/>
@@ -1565,7 +1573,7 @@
       <c r="H9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="29" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1595,7 +1603,7 @@
       <c r="H10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" ht="48.75" customHeight="1" spans="1:9">
       <c r="A11" s="11">
@@ -1621,159 +1629,159 @@
         <v>17</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" ht="48.75" customHeight="1" spans="1:9">
       <c r="A12" s="11">
         <v>16</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:9">
       <c r="A13" s="11">
         <v>17</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" ht="40" customHeight="1" spans="1:9">
       <c r="A14" s="11">
         <v>18</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" ht="36" customHeight="1" spans="1:9">
       <c r="A15" s="21">
         <v>19</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="21">
         <v>20</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" ht="31.2" spans="1:9">
       <c r="A17" s="21">
         <v>21</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>15</v>
@@ -1786,28 +1794,28 @@
         <v>120</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="22">
         <v>22</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="16">
         <f t="shared" si="0"/>
@@ -1817,19 +1825,19 @@
         <v>17</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>23</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>15</v>
@@ -1845,2938 +1853,2938 @@
         <v>17</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" ht="31.2" spans="1:9">
       <c r="A20" s="22">
         <v>24</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="16">
-        <f>IF(E20="Complex",240,IF(E20="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="29"/>
+        <v>27</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" ht="16.35" spans="3:9">
-      <c r="C21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="30"/>
+      <c r="C21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" ht="16.35" spans="3:9">
-      <c r="C22" s="23"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="30"/>
+      <c r="C22" s="24"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" ht="16.35" spans="3:9">
-      <c r="C23" s="23"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="30"/>
+      <c r="C23" s="24"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" ht="16.35" spans="3:9">
-      <c r="C24" s="23"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="30"/>
+      <c r="C24" s="24"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" ht="16.35" spans="3:8">
-      <c r="C25" s="26"/>
-      <c r="H25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" ht="16.35" spans="3:8">
-      <c r="C26" s="26"/>
-      <c r="H26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" ht="16.35" spans="3:8">
-      <c r="C27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" ht="16.35" spans="3:8">
-      <c r="C28" s="26"/>
-      <c r="H28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" ht="16.35" spans="3:8">
-      <c r="C29" s="26"/>
-      <c r="H29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" ht="16.35" spans="3:8">
-      <c r="C30" s="26"/>
-      <c r="H30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31" ht="16.35" spans="3:8">
-      <c r="C31" s="26"/>
-      <c r="H31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" ht="16.35" spans="8:8">
-      <c r="H32" s="27"/>
+      <c r="H32" s="28"/>
     </row>
     <row r="33" ht="16.35" spans="8:8">
-      <c r="H33" s="27"/>
+      <c r="H33" s="28"/>
     </row>
     <row r="34" ht="16.35" spans="8:8">
-      <c r="H34" s="27"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" ht="16.35" spans="8:8">
-      <c r="H35" s="27"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" ht="16.35" spans="8:8">
-      <c r="H36" s="27"/>
+      <c r="H36" s="28"/>
     </row>
     <row r="37" ht="16.35" spans="8:8">
-      <c r="H37" s="27"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" ht="16.35" spans="8:8">
-      <c r="H38" s="27"/>
+      <c r="H38" s="28"/>
     </row>
     <row r="39" ht="16.35" spans="8:8">
-      <c r="H39" s="27"/>
+      <c r="H39" s="28"/>
     </row>
     <row r="40" ht="16.35" spans="8:8">
-      <c r="H40" s="27"/>
+      <c r="H40" s="28"/>
     </row>
     <row r="41" ht="16.35" spans="8:8">
-      <c r="H41" s="27"/>
+      <c r="H41" s="28"/>
     </row>
     <row r="42" ht="16.35" spans="8:8">
-      <c r="H42" s="27"/>
+      <c r="H42" s="28"/>
     </row>
     <row r="43" ht="16.35" spans="8:8">
-      <c r="H43" s="27"/>
+      <c r="H43" s="28"/>
     </row>
     <row r="44" ht="16.35" spans="8:8">
-      <c r="H44" s="27"/>
+      <c r="H44" s="28"/>
     </row>
     <row r="45" ht="16.35" spans="8:8">
-      <c r="H45" s="27"/>
+      <c r="H45" s="28"/>
     </row>
     <row r="46" ht="16.35" spans="8:8">
-      <c r="H46" s="27"/>
+      <c r="H46" s="28"/>
     </row>
     <row r="47" ht="16.35" spans="8:8">
-      <c r="H47" s="27"/>
+      <c r="H47" s="28"/>
     </row>
     <row r="48" ht="16.35" spans="8:8">
-      <c r="H48" s="27"/>
+      <c r="H48" s="28"/>
     </row>
     <row r="49" ht="16.35" spans="8:8">
-      <c r="H49" s="27"/>
+      <c r="H49" s="28"/>
     </row>
     <row r="50" ht="16.35" spans="8:8">
-      <c r="H50" s="27"/>
+      <c r="H50" s="28"/>
     </row>
     <row r="51" ht="16.35" spans="8:8">
-      <c r="H51" s="27"/>
+      <c r="H51" s="28"/>
     </row>
     <row r="52" ht="16.35" spans="8:8">
-      <c r="H52" s="27"/>
+      <c r="H52" s="28"/>
     </row>
     <row r="53" ht="16.35" spans="8:8">
-      <c r="H53" s="27"/>
+      <c r="H53" s="28"/>
     </row>
     <row r="54" ht="16.35" spans="8:8">
-      <c r="H54" s="27"/>
+      <c r="H54" s="28"/>
     </row>
     <row r="55" ht="16.35" spans="8:8">
-      <c r="H55" s="27"/>
+      <c r="H55" s="28"/>
     </row>
     <row r="56" ht="16.35" spans="8:8">
-      <c r="H56" s="27"/>
+      <c r="H56" s="28"/>
     </row>
     <row r="57" ht="16.35" spans="8:8">
-      <c r="H57" s="27"/>
+      <c r="H57" s="28"/>
     </row>
     <row r="58" ht="16.35" spans="8:8">
-      <c r="H58" s="27"/>
+      <c r="H58" s="28"/>
     </row>
     <row r="59" ht="16.35" spans="8:8">
-      <c r="H59" s="27"/>
+      <c r="H59" s="28"/>
     </row>
     <row r="60" ht="16.35" spans="8:8">
-      <c r="H60" s="27"/>
+      <c r="H60" s="28"/>
     </row>
     <row r="61" ht="16.35" spans="8:8">
-      <c r="H61" s="27"/>
+      <c r="H61" s="28"/>
     </row>
     <row r="62" ht="16.35" spans="8:8">
-      <c r="H62" s="27"/>
+      <c r="H62" s="28"/>
     </row>
     <row r="63" ht="16.35" spans="8:8">
-      <c r="H63" s="27"/>
+      <c r="H63" s="28"/>
     </row>
     <row r="64" ht="16.35" spans="8:8">
-      <c r="H64" s="27"/>
+      <c r="H64" s="28"/>
     </row>
     <row r="65" ht="16.35" spans="8:8">
-      <c r="H65" s="27"/>
+      <c r="H65" s="28"/>
     </row>
     <row r="66" ht="16.35" spans="8:8">
-      <c r="H66" s="27"/>
+      <c r="H66" s="28"/>
     </row>
     <row r="67" ht="16.35" spans="8:8">
-      <c r="H67" s="27"/>
+      <c r="H67" s="28"/>
     </row>
     <row r="68" ht="16.35" spans="8:8">
-      <c r="H68" s="27"/>
+      <c r="H68" s="28"/>
     </row>
     <row r="69" ht="16.35" spans="8:8">
-      <c r="H69" s="27"/>
+      <c r="H69" s="28"/>
     </row>
     <row r="70" ht="16.35" spans="8:8">
-      <c r="H70" s="27"/>
+      <c r="H70" s="28"/>
     </row>
     <row r="71" ht="16.35" spans="8:8">
-      <c r="H71" s="27"/>
+      <c r="H71" s="28"/>
     </row>
     <row r="72" ht="16.35" spans="8:8">
-      <c r="H72" s="27"/>
+      <c r="H72" s="28"/>
     </row>
     <row r="73" ht="16.35" spans="8:8">
-      <c r="H73" s="27"/>
+      <c r="H73" s="28"/>
     </row>
     <row r="74" ht="16.35" spans="8:8">
-      <c r="H74" s="27"/>
+      <c r="H74" s="28"/>
     </row>
     <row r="75" ht="16.35" spans="8:8">
-      <c r="H75" s="27"/>
+      <c r="H75" s="28"/>
     </row>
     <row r="76" ht="16.35" spans="8:8">
-      <c r="H76" s="27"/>
+      <c r="H76" s="28"/>
     </row>
     <row r="77" ht="16.35" spans="8:8">
-      <c r="H77" s="27"/>
+      <c r="H77" s="28"/>
     </row>
     <row r="78" ht="16.35" spans="8:8">
-      <c r="H78" s="27"/>
+      <c r="H78" s="28"/>
     </row>
     <row r="79" ht="16.35" spans="8:8">
-      <c r="H79" s="27"/>
+      <c r="H79" s="28"/>
     </row>
     <row r="80" ht="16.35" spans="8:8">
-      <c r="H80" s="27"/>
+      <c r="H80" s="28"/>
     </row>
     <row r="81" ht="16.35" spans="8:8">
-      <c r="H81" s="27"/>
+      <c r="H81" s="28"/>
     </row>
     <row r="82" ht="16.35" spans="8:8">
-      <c r="H82" s="27"/>
+      <c r="H82" s="28"/>
     </row>
     <row r="83" ht="16.35" spans="8:8">
-      <c r="H83" s="27"/>
+      <c r="H83" s="28"/>
     </row>
     <row r="84" ht="16.35" spans="8:8">
-      <c r="H84" s="27"/>
+      <c r="H84" s="28"/>
     </row>
     <row r="85" ht="16.35" spans="8:8">
-      <c r="H85" s="27"/>
+      <c r="H85" s="28"/>
     </row>
     <row r="86" ht="16.35" spans="8:8">
-      <c r="H86" s="27"/>
+      <c r="H86" s="28"/>
     </row>
     <row r="87" ht="16.35" spans="8:8">
-      <c r="H87" s="27"/>
+      <c r="H87" s="28"/>
     </row>
     <row r="88" ht="16.35" spans="8:8">
-      <c r="H88" s="27"/>
+      <c r="H88" s="28"/>
     </row>
     <row r="89" ht="16.35" spans="8:8">
-      <c r="H89" s="27"/>
+      <c r="H89" s="28"/>
     </row>
     <row r="90" ht="16.35" spans="8:8">
-      <c r="H90" s="27"/>
+      <c r="H90" s="28"/>
     </row>
     <row r="91" ht="16.35" spans="8:8">
-      <c r="H91" s="27"/>
+      <c r="H91" s="28"/>
     </row>
     <row r="92" ht="16.35" spans="8:8">
-      <c r="H92" s="27"/>
+      <c r="H92" s="28"/>
     </row>
     <row r="93" ht="16.35" spans="8:8">
-      <c r="H93" s="27"/>
+      <c r="H93" s="28"/>
     </row>
     <row r="94" ht="16.35" spans="8:8">
-      <c r="H94" s="27"/>
+      <c r="H94" s="28"/>
     </row>
     <row r="95" ht="16.35" spans="8:8">
-      <c r="H95" s="27"/>
+      <c r="H95" s="28"/>
     </row>
     <row r="96" ht="16.35" spans="8:8">
-      <c r="H96" s="27"/>
+      <c r="H96" s="28"/>
     </row>
     <row r="97" ht="16.35" spans="8:8">
-      <c r="H97" s="27"/>
+      <c r="H97" s="28"/>
     </row>
     <row r="98" ht="16.35" spans="8:8">
-      <c r="H98" s="27"/>
+      <c r="H98" s="28"/>
     </row>
     <row r="99" ht="16.35" spans="8:8">
-      <c r="H99" s="27"/>
+      <c r="H99" s="28"/>
     </row>
     <row r="100" ht="16.35" spans="8:8">
-      <c r="H100" s="27"/>
+      <c r="H100" s="28"/>
     </row>
     <row r="101" ht="16.35" spans="8:8">
-      <c r="H101" s="27"/>
+      <c r="H101" s="28"/>
     </row>
     <row r="102" ht="16.35" spans="8:8">
-      <c r="H102" s="27"/>
+      <c r="H102" s="28"/>
     </row>
     <row r="103" ht="16.35" spans="8:8">
-      <c r="H103" s="27"/>
+      <c r="H103" s="28"/>
     </row>
     <row r="104" ht="16.35" spans="8:8">
-      <c r="H104" s="27"/>
+      <c r="H104" s="28"/>
     </row>
     <row r="105" ht="16.35" spans="8:8">
-      <c r="H105" s="27"/>
+      <c r="H105" s="28"/>
     </row>
     <row r="106" ht="16.35" spans="8:8">
-      <c r="H106" s="27"/>
+      <c r="H106" s="28"/>
     </row>
     <row r="107" ht="16.35" spans="8:8">
-      <c r="H107" s="27"/>
+      <c r="H107" s="28"/>
     </row>
     <row r="108" ht="16.35" spans="8:8">
-      <c r="H108" s="27"/>
+      <c r="H108" s="28"/>
     </row>
     <row r="109" ht="16.35" spans="8:8">
-      <c r="H109" s="27"/>
+      <c r="H109" s="28"/>
     </row>
     <row r="110" ht="16.35" spans="8:8">
-      <c r="H110" s="27"/>
+      <c r="H110" s="28"/>
     </row>
     <row r="111" ht="16.35" spans="8:8">
-      <c r="H111" s="27"/>
+      <c r="H111" s="28"/>
     </row>
     <row r="112" ht="16.35" spans="8:8">
-      <c r="H112" s="27"/>
+      <c r="H112" s="28"/>
     </row>
     <row r="113" ht="16.35" spans="8:8">
-      <c r="H113" s="27"/>
+      <c r="H113" s="28"/>
     </row>
     <row r="114" ht="16.35" spans="8:8">
-      <c r="H114" s="27"/>
+      <c r="H114" s="28"/>
     </row>
     <row r="115" ht="16.35" spans="8:8">
-      <c r="H115" s="27"/>
+      <c r="H115" s="28"/>
     </row>
     <row r="116" ht="16.35" spans="8:8">
-      <c r="H116" s="27"/>
+      <c r="H116" s="28"/>
     </row>
     <row r="117" ht="16.35" spans="8:8">
-      <c r="H117" s="27"/>
+      <c r="H117" s="28"/>
     </row>
     <row r="118" ht="16.35" spans="8:8">
-      <c r="H118" s="27"/>
+      <c r="H118" s="28"/>
     </row>
     <row r="119" ht="16.35" spans="8:8">
-      <c r="H119" s="27"/>
+      <c r="H119" s="28"/>
     </row>
     <row r="120" ht="16.35" spans="8:8">
-      <c r="H120" s="27"/>
+      <c r="H120" s="28"/>
     </row>
     <row r="121" ht="16.35" spans="8:8">
-      <c r="H121" s="27"/>
+      <c r="H121" s="28"/>
     </row>
     <row r="122" ht="16.35" spans="8:8">
-      <c r="H122" s="27"/>
+      <c r="H122" s="28"/>
     </row>
     <row r="123" ht="16.35" spans="8:8">
-      <c r="H123" s="27"/>
+      <c r="H123" s="28"/>
     </row>
     <row r="124" ht="16.35" spans="8:8">
-      <c r="H124" s="27"/>
+      <c r="H124" s="28"/>
     </row>
     <row r="125" ht="16.35" spans="8:8">
-      <c r="H125" s="27"/>
+      <c r="H125" s="28"/>
     </row>
     <row r="126" ht="16.35" spans="8:8">
-      <c r="H126" s="27"/>
+      <c r="H126" s="28"/>
     </row>
     <row r="127" ht="16.35" spans="8:8">
-      <c r="H127" s="27"/>
+      <c r="H127" s="28"/>
     </row>
     <row r="128" ht="16.35" spans="8:8">
-      <c r="H128" s="27"/>
+      <c r="H128" s="28"/>
     </row>
     <row r="129" ht="16.35" spans="8:8">
-      <c r="H129" s="27"/>
+      <c r="H129" s="28"/>
     </row>
     <row r="130" ht="16.35" spans="8:8">
-      <c r="H130" s="27"/>
+      <c r="H130" s="28"/>
     </row>
     <row r="131" ht="16.35" spans="8:8">
-      <c r="H131" s="27"/>
+      <c r="H131" s="28"/>
     </row>
     <row r="132" ht="16.35" spans="8:8">
-      <c r="H132" s="27"/>
+      <c r="H132" s="28"/>
     </row>
     <row r="133" ht="16.35" spans="8:8">
-      <c r="H133" s="27"/>
+      <c r="H133" s="28"/>
     </row>
     <row r="134" ht="16.35" spans="8:8">
-      <c r="H134" s="27"/>
+      <c r="H134" s="28"/>
     </row>
     <row r="135" ht="16.35" spans="8:8">
-      <c r="H135" s="27"/>
+      <c r="H135" s="28"/>
     </row>
     <row r="136" ht="16.35" spans="8:8">
-      <c r="H136" s="27"/>
+      <c r="H136" s="28"/>
     </row>
     <row r="137" ht="16.35" spans="8:8">
-      <c r="H137" s="27"/>
+      <c r="H137" s="28"/>
     </row>
     <row r="138" ht="16.35" spans="8:8">
-      <c r="H138" s="27"/>
+      <c r="H138" s="28"/>
     </row>
     <row r="139" ht="16.35" spans="8:8">
-      <c r="H139" s="27"/>
+      <c r="H139" s="28"/>
     </row>
     <row r="140" ht="16.35" spans="8:8">
-      <c r="H140" s="27"/>
+      <c r="H140" s="28"/>
     </row>
     <row r="141" ht="16.35" spans="8:8">
-      <c r="H141" s="27"/>
+      <c r="H141" s="28"/>
     </row>
     <row r="142" ht="16.35" spans="8:8">
-      <c r="H142" s="27"/>
+      <c r="H142" s="28"/>
     </row>
     <row r="143" ht="16.35" spans="8:8">
-      <c r="H143" s="27"/>
+      <c r="H143" s="28"/>
     </row>
     <row r="144" ht="16.35" spans="8:8">
-      <c r="H144" s="27"/>
+      <c r="H144" s="28"/>
     </row>
     <row r="145" ht="16.35" spans="8:8">
-      <c r="H145" s="27"/>
+      <c r="H145" s="28"/>
     </row>
     <row r="146" ht="16.35" spans="8:8">
-      <c r="H146" s="27"/>
+      <c r="H146" s="28"/>
     </row>
     <row r="147" ht="16.35" spans="8:8">
-      <c r="H147" s="27"/>
+      <c r="H147" s="28"/>
     </row>
     <row r="148" ht="16.35" spans="8:8">
-      <c r="H148" s="27"/>
+      <c r="H148" s="28"/>
     </row>
     <row r="149" ht="16.35" spans="8:8">
-      <c r="H149" s="27"/>
+      <c r="H149" s="28"/>
     </row>
     <row r="150" ht="16.35" spans="8:8">
-      <c r="H150" s="27"/>
+      <c r="H150" s="28"/>
     </row>
     <row r="151" ht="16.35" spans="8:8">
-      <c r="H151" s="27"/>
+      <c r="H151" s="28"/>
     </row>
     <row r="152" ht="16.35" spans="8:8">
-      <c r="H152" s="27"/>
+      <c r="H152" s="28"/>
     </row>
     <row r="153" ht="16.35" spans="8:8">
-      <c r="H153" s="27"/>
+      <c r="H153" s="28"/>
     </row>
     <row r="154" ht="16.35" spans="8:8">
-      <c r="H154" s="27"/>
+      <c r="H154" s="28"/>
     </row>
     <row r="155" ht="16.35" spans="8:8">
-      <c r="H155" s="27"/>
+      <c r="H155" s="28"/>
     </row>
     <row r="156" ht="16.35" spans="8:8">
-      <c r="H156" s="27"/>
+      <c r="H156" s="28"/>
     </row>
     <row r="157" ht="16.35" spans="8:8">
-      <c r="H157" s="27"/>
+      <c r="H157" s="28"/>
     </row>
     <row r="158" ht="16.35" spans="8:8">
-      <c r="H158" s="27"/>
+      <c r="H158" s="28"/>
     </row>
     <row r="159" ht="16.35" spans="8:8">
-      <c r="H159" s="27"/>
+      <c r="H159" s="28"/>
     </row>
     <row r="160" ht="16.35" spans="8:8">
-      <c r="H160" s="27"/>
+      <c r="H160" s="28"/>
     </row>
     <row r="161" ht="16.35" spans="8:8">
-      <c r="H161" s="27"/>
+      <c r="H161" s="28"/>
     </row>
     <row r="162" ht="16.35" spans="8:8">
-      <c r="H162" s="27"/>
+      <c r="H162" s="28"/>
     </row>
     <row r="163" ht="16.35" spans="8:8">
-      <c r="H163" s="27"/>
+      <c r="H163" s="28"/>
     </row>
     <row r="164" ht="16.35" spans="8:8">
-      <c r="H164" s="27"/>
+      <c r="H164" s="28"/>
     </row>
     <row r="165" ht="16.35" spans="8:8">
-      <c r="H165" s="27"/>
+      <c r="H165" s="28"/>
     </row>
     <row r="166" ht="16.35" spans="8:8">
-      <c r="H166" s="27"/>
+      <c r="H166" s="28"/>
     </row>
     <row r="167" ht="16.35" spans="8:8">
-      <c r="H167" s="27"/>
+      <c r="H167" s="28"/>
     </row>
     <row r="168" ht="16.35" spans="8:8">
-      <c r="H168" s="27"/>
+      <c r="H168" s="28"/>
     </row>
     <row r="169" ht="16.35" spans="8:8">
-      <c r="H169" s="27"/>
+      <c r="H169" s="28"/>
     </row>
     <row r="170" ht="16.35" spans="8:8">
-      <c r="H170" s="27"/>
+      <c r="H170" s="28"/>
     </row>
     <row r="171" ht="16.35" spans="8:8">
-      <c r="H171" s="27"/>
+      <c r="H171" s="28"/>
     </row>
     <row r="172" ht="16.35" spans="8:8">
-      <c r="H172" s="27"/>
+      <c r="H172" s="28"/>
     </row>
     <row r="173" ht="16.35" spans="8:8">
-      <c r="H173" s="27"/>
+      <c r="H173" s="28"/>
     </row>
     <row r="174" ht="16.35" spans="8:8">
-      <c r="H174" s="27"/>
+      <c r="H174" s="28"/>
     </row>
     <row r="175" ht="16.35" spans="8:8">
-      <c r="H175" s="27"/>
+      <c r="H175" s="28"/>
     </row>
     <row r="176" ht="16.35" spans="8:8">
-      <c r="H176" s="27"/>
+      <c r="H176" s="28"/>
     </row>
     <row r="177" ht="16.35" spans="8:8">
-      <c r="H177" s="27"/>
+      <c r="H177" s="28"/>
     </row>
     <row r="178" ht="16.35" spans="8:8">
-      <c r="H178" s="27"/>
+      <c r="H178" s="28"/>
     </row>
     <row r="179" ht="16.35" spans="8:8">
-      <c r="H179" s="27"/>
+      <c r="H179" s="28"/>
     </row>
     <row r="180" ht="16.35" spans="8:8">
-      <c r="H180" s="27"/>
+      <c r="H180" s="28"/>
     </row>
     <row r="181" ht="16.35" spans="8:8">
-      <c r="H181" s="27"/>
+      <c r="H181" s="28"/>
     </row>
     <row r="182" ht="16.35" spans="8:8">
-      <c r="H182" s="27"/>
+      <c r="H182" s="28"/>
     </row>
     <row r="183" ht="16.35" spans="8:8">
-      <c r="H183" s="27"/>
+      <c r="H183" s="28"/>
     </row>
     <row r="184" ht="16.35" spans="8:8">
-      <c r="H184" s="27"/>
+      <c r="H184" s="28"/>
     </row>
     <row r="185" ht="16.35" spans="8:8">
-      <c r="H185" s="27"/>
+      <c r="H185" s="28"/>
     </row>
     <row r="186" ht="16.35" spans="8:8">
-      <c r="H186" s="27"/>
+      <c r="H186" s="28"/>
     </row>
     <row r="187" ht="16.35" spans="8:8">
-      <c r="H187" s="27"/>
+      <c r="H187" s="28"/>
     </row>
     <row r="188" ht="16.35" spans="8:8">
-      <c r="H188" s="27"/>
+      <c r="H188" s="28"/>
     </row>
     <row r="189" ht="16.35" spans="8:8">
-      <c r="H189" s="27"/>
+      <c r="H189" s="28"/>
     </row>
     <row r="190" ht="16.35" spans="8:8">
-      <c r="H190" s="27"/>
+      <c r="H190" s="28"/>
     </row>
     <row r="191" ht="16.35" spans="8:8">
-      <c r="H191" s="27"/>
+      <c r="H191" s="28"/>
     </row>
     <row r="192" ht="16.35" spans="8:8">
-      <c r="H192" s="27"/>
+      <c r="H192" s="28"/>
     </row>
     <row r="193" ht="16.35" spans="8:8">
-      <c r="H193" s="27"/>
+      <c r="H193" s="28"/>
     </row>
     <row r="194" ht="16.35" spans="8:8">
-      <c r="H194" s="27"/>
+      <c r="H194" s="28"/>
     </row>
     <row r="195" ht="16.35" spans="8:8">
-      <c r="H195" s="27"/>
+      <c r="H195" s="28"/>
     </row>
     <row r="196" ht="16.35" spans="8:8">
-      <c r="H196" s="27"/>
+      <c r="H196" s="28"/>
     </row>
     <row r="197" ht="16.35" spans="8:8">
-      <c r="H197" s="27"/>
+      <c r="H197" s="28"/>
     </row>
     <row r="198" ht="16.35" spans="8:8">
-      <c r="H198" s="27"/>
+      <c r="H198" s="28"/>
     </row>
     <row r="199" ht="16.35" spans="8:8">
-      <c r="H199" s="27"/>
+      <c r="H199" s="28"/>
     </row>
     <row r="200" ht="16.35" spans="8:8">
-      <c r="H200" s="27"/>
+      <c r="H200" s="28"/>
     </row>
     <row r="201" ht="16.35" spans="8:8">
-      <c r="H201" s="27"/>
+      <c r="H201" s="28"/>
     </row>
     <row r="202" ht="16.35" spans="8:8">
-      <c r="H202" s="27"/>
+      <c r="H202" s="28"/>
     </row>
     <row r="203" ht="16.35" spans="8:8">
-      <c r="H203" s="27"/>
+      <c r="H203" s="28"/>
     </row>
     <row r="204" ht="16.35" spans="8:8">
-      <c r="H204" s="27"/>
+      <c r="H204" s="28"/>
     </row>
     <row r="205" ht="16.35" spans="8:8">
-      <c r="H205" s="27"/>
+      <c r="H205" s="28"/>
     </row>
     <row r="206" ht="16.35" spans="8:8">
-      <c r="H206" s="27"/>
+      <c r="H206" s="28"/>
     </row>
     <row r="207" ht="16.35" spans="8:8">
-      <c r="H207" s="27"/>
+      <c r="H207" s="28"/>
     </row>
     <row r="208" ht="16.35" spans="8:8">
-      <c r="H208" s="27"/>
+      <c r="H208" s="28"/>
     </row>
     <row r="209" ht="16.35" spans="8:8">
-      <c r="H209" s="27"/>
+      <c r="H209" s="28"/>
     </row>
     <row r="210" ht="16.35" spans="8:8">
-      <c r="H210" s="27"/>
+      <c r="H210" s="28"/>
     </row>
     <row r="211" ht="16.35" spans="8:8">
-      <c r="H211" s="27"/>
+      <c r="H211" s="28"/>
     </row>
     <row r="212" ht="16.35" spans="8:8">
-      <c r="H212" s="27"/>
+      <c r="H212" s="28"/>
     </row>
     <row r="213" ht="16.35" spans="8:8">
-      <c r="H213" s="27"/>
+      <c r="H213" s="28"/>
     </row>
     <row r="214" ht="16.35" spans="8:8">
-      <c r="H214" s="27"/>
+      <c r="H214" s="28"/>
     </row>
     <row r="215" ht="16.35" spans="8:8">
-      <c r="H215" s="27"/>
+      <c r="H215" s="28"/>
     </row>
     <row r="216" ht="16.35" spans="8:8">
-      <c r="H216" s="27"/>
+      <c r="H216" s="28"/>
     </row>
     <row r="217" ht="16.35" spans="8:8">
-      <c r="H217" s="27"/>
+      <c r="H217" s="28"/>
     </row>
     <row r="218" ht="16.35" spans="8:8">
-      <c r="H218" s="27"/>
+      <c r="H218" s="28"/>
     </row>
     <row r="219" ht="16.35" spans="8:8">
-      <c r="H219" s="27"/>
+      <c r="H219" s="28"/>
     </row>
     <row r="220" ht="16.35" spans="8:8">
-      <c r="H220" s="27"/>
+      <c r="H220" s="28"/>
     </row>
     <row r="221" ht="16.35" spans="8:8">
-      <c r="H221" s="27"/>
+      <c r="H221" s="28"/>
     </row>
     <row r="222" ht="16.35" spans="8:8">
-      <c r="H222" s="27"/>
+      <c r="H222" s="28"/>
     </row>
     <row r="223" ht="16.35" spans="8:8">
-      <c r="H223" s="27"/>
+      <c r="H223" s="28"/>
     </row>
     <row r="224" ht="16.35" spans="8:8">
-      <c r="H224" s="27"/>
+      <c r="H224" s="28"/>
     </row>
     <row r="225" ht="16.35" spans="8:8">
-      <c r="H225" s="27"/>
+      <c r="H225" s="28"/>
     </row>
     <row r="226" ht="16.35" spans="8:8">
-      <c r="H226" s="27"/>
+      <c r="H226" s="28"/>
     </row>
     <row r="227" ht="16.35" spans="8:8">
-      <c r="H227" s="27"/>
+      <c r="H227" s="28"/>
     </row>
     <row r="228" ht="16.35" spans="8:8">
-      <c r="H228" s="27"/>
+      <c r="H228" s="28"/>
     </row>
     <row r="229" ht="16.35" spans="8:8">
-      <c r="H229" s="27"/>
+      <c r="H229" s="28"/>
     </row>
     <row r="230" ht="16.35" spans="8:8">
-      <c r="H230" s="27"/>
+      <c r="H230" s="28"/>
     </row>
     <row r="231" ht="16.35" spans="8:8">
-      <c r="H231" s="27"/>
+      <c r="H231" s="28"/>
     </row>
     <row r="232" ht="16.35" spans="8:8">
-      <c r="H232" s="27"/>
+      <c r="H232" s="28"/>
     </row>
     <row r="233" ht="16.35" spans="8:8">
-      <c r="H233" s="27"/>
+      <c r="H233" s="28"/>
     </row>
     <row r="234" ht="16.35" spans="8:8">
-      <c r="H234" s="27"/>
+      <c r="H234" s="28"/>
     </row>
     <row r="235" ht="16.35" spans="8:8">
-      <c r="H235" s="27"/>
+      <c r="H235" s="28"/>
     </row>
     <row r="236" ht="16.35" spans="8:8">
-      <c r="H236" s="27"/>
+      <c r="H236" s="28"/>
     </row>
     <row r="237" ht="16.35" spans="8:8">
-      <c r="H237" s="27"/>
+      <c r="H237" s="28"/>
     </row>
     <row r="238" ht="16.35" spans="8:8">
-      <c r="H238" s="27"/>
+      <c r="H238" s="28"/>
     </row>
     <row r="239" ht="16.35" spans="8:8">
-      <c r="H239" s="27"/>
+      <c r="H239" s="28"/>
     </row>
     <row r="240" ht="16.35" spans="8:8">
-      <c r="H240" s="27"/>
+      <c r="H240" s="28"/>
     </row>
     <row r="241" ht="16.35" spans="8:8">
-      <c r="H241" s="27"/>
+      <c r="H241" s="28"/>
     </row>
     <row r="242" ht="16.35" spans="8:8">
-      <c r="H242" s="27"/>
+      <c r="H242" s="28"/>
     </row>
     <row r="243" ht="16.35" spans="8:8">
-      <c r="H243" s="27"/>
+      <c r="H243" s="28"/>
     </row>
     <row r="244" ht="16.35" spans="8:8">
-      <c r="H244" s="27"/>
+      <c r="H244" s="28"/>
     </row>
     <row r="245" ht="16.35" spans="8:8">
-      <c r="H245" s="27"/>
+      <c r="H245" s="28"/>
     </row>
     <row r="246" ht="16.35" spans="8:8">
-      <c r="H246" s="27"/>
+      <c r="H246" s="28"/>
     </row>
     <row r="247" ht="16.35" spans="8:8">
-      <c r="H247" s="27"/>
+      <c r="H247" s="28"/>
     </row>
     <row r="248" ht="16.35" spans="8:8">
-      <c r="H248" s="27"/>
+      <c r="H248" s="28"/>
     </row>
     <row r="249" ht="16.35" spans="8:8">
-      <c r="H249" s="27"/>
+      <c r="H249" s="28"/>
     </row>
     <row r="250" ht="16.35" spans="8:8">
-      <c r="H250" s="27"/>
+      <c r="H250" s="28"/>
     </row>
     <row r="251" ht="16.35" spans="8:8">
-      <c r="H251" s="27"/>
+      <c r="H251" s="28"/>
     </row>
     <row r="252" ht="16.35" spans="8:8">
-      <c r="H252" s="27"/>
+      <c r="H252" s="28"/>
     </row>
     <row r="253" ht="16.35" spans="8:8">
-      <c r="H253" s="27"/>
+      <c r="H253" s="28"/>
     </row>
     <row r="254" ht="16.35" spans="8:8">
-      <c r="H254" s="27"/>
+      <c r="H254" s="28"/>
     </row>
     <row r="255" ht="16.35" spans="8:8">
-      <c r="H255" s="27"/>
+      <c r="H255" s="28"/>
     </row>
     <row r="256" ht="16.35" spans="8:8">
-      <c r="H256" s="27"/>
+      <c r="H256" s="28"/>
     </row>
     <row r="257" ht="16.35" spans="8:8">
-      <c r="H257" s="27"/>
+      <c r="H257" s="28"/>
     </row>
     <row r="258" ht="16.35" spans="8:8">
-      <c r="H258" s="27"/>
+      <c r="H258" s="28"/>
     </row>
     <row r="259" ht="16.35" spans="8:8">
-      <c r="H259" s="27"/>
+      <c r="H259" s="28"/>
     </row>
     <row r="260" ht="16.35" spans="8:8">
-      <c r="H260" s="27"/>
+      <c r="H260" s="28"/>
     </row>
     <row r="261" ht="16.35" spans="8:8">
-      <c r="H261" s="27"/>
+      <c r="H261" s="28"/>
     </row>
     <row r="262" ht="16.35" spans="8:8">
-      <c r="H262" s="27"/>
+      <c r="H262" s="28"/>
     </row>
     <row r="263" ht="16.35" spans="8:8">
-      <c r="H263" s="27"/>
+      <c r="H263" s="28"/>
     </row>
     <row r="264" ht="16.35" spans="8:8">
-      <c r="H264" s="27"/>
+      <c r="H264" s="28"/>
     </row>
     <row r="265" ht="16.35" spans="8:8">
-      <c r="H265" s="27"/>
+      <c r="H265" s="28"/>
     </row>
     <row r="266" ht="16.35" spans="8:8">
-      <c r="H266" s="27"/>
+      <c r="H266" s="28"/>
     </row>
     <row r="267" ht="16.35" spans="8:8">
-      <c r="H267" s="27"/>
+      <c r="H267" s="28"/>
     </row>
     <row r="268" ht="16.35" spans="8:8">
-      <c r="H268" s="27"/>
+      <c r="H268" s="28"/>
     </row>
     <row r="269" ht="16.35" spans="8:8">
-      <c r="H269" s="27"/>
+      <c r="H269" s="28"/>
     </row>
     <row r="270" ht="16.35" spans="8:8">
-      <c r="H270" s="27"/>
+      <c r="H270" s="28"/>
     </row>
     <row r="271" ht="16.35" spans="8:8">
-      <c r="H271" s="27"/>
+      <c r="H271" s="28"/>
     </row>
     <row r="272" ht="16.35" spans="8:8">
-      <c r="H272" s="27"/>
+      <c r="H272" s="28"/>
     </row>
     <row r="273" ht="16.35" spans="8:8">
-      <c r="H273" s="27"/>
+      <c r="H273" s="28"/>
     </row>
     <row r="274" ht="16.35" spans="8:8">
-      <c r="H274" s="27"/>
+      <c r="H274" s="28"/>
     </row>
     <row r="275" ht="16.35" spans="8:8">
-      <c r="H275" s="27"/>
+      <c r="H275" s="28"/>
     </row>
     <row r="276" ht="16.35" spans="8:8">
-      <c r="H276" s="27"/>
+      <c r="H276" s="28"/>
     </row>
     <row r="277" ht="16.35" spans="8:8">
-      <c r="H277" s="27"/>
+      <c r="H277" s="28"/>
     </row>
     <row r="278" ht="16.35" spans="8:8">
-      <c r="H278" s="27"/>
+      <c r="H278" s="28"/>
     </row>
     <row r="279" ht="16.35" spans="8:8">
-      <c r="H279" s="27"/>
+      <c r="H279" s="28"/>
     </row>
     <row r="280" ht="16.35" spans="8:8">
-      <c r="H280" s="27"/>
+      <c r="H280" s="28"/>
     </row>
     <row r="281" ht="16.35" spans="8:8">
-      <c r="H281" s="27"/>
+      <c r="H281" s="28"/>
     </row>
     <row r="282" ht="16.35" spans="8:8">
-      <c r="H282" s="27"/>
+      <c r="H282" s="28"/>
     </row>
     <row r="283" ht="16.35" spans="8:8">
-      <c r="H283" s="27"/>
+      <c r="H283" s="28"/>
     </row>
     <row r="284" ht="16.35" spans="8:8">
-      <c r="H284" s="27"/>
+      <c r="H284" s="28"/>
     </row>
     <row r="285" ht="16.35" spans="8:8">
-      <c r="H285" s="27"/>
+      <c r="H285" s="28"/>
     </row>
     <row r="286" ht="16.35" spans="8:8">
-      <c r="H286" s="27"/>
+      <c r="H286" s="28"/>
     </row>
     <row r="287" ht="16.35" spans="8:8">
-      <c r="H287" s="27"/>
+      <c r="H287" s="28"/>
     </row>
     <row r="288" ht="16.35" spans="8:8">
-      <c r="H288" s="27"/>
+      <c r="H288" s="28"/>
     </row>
     <row r="289" ht="16.35" spans="8:8">
-      <c r="H289" s="27"/>
+      <c r="H289" s="28"/>
     </row>
     <row r="290" ht="16.35" spans="8:8">
-      <c r="H290" s="27"/>
+      <c r="H290" s="28"/>
     </row>
     <row r="291" ht="16.35" spans="8:8">
-      <c r="H291" s="27"/>
+      <c r="H291" s="28"/>
     </row>
     <row r="292" ht="16.35" spans="8:8">
-      <c r="H292" s="27"/>
+      <c r="H292" s="28"/>
     </row>
     <row r="293" ht="16.35" spans="8:8">
-      <c r="H293" s="27"/>
+      <c r="H293" s="28"/>
     </row>
     <row r="294" ht="16.35" spans="8:8">
-      <c r="H294" s="27"/>
+      <c r="H294" s="28"/>
     </row>
     <row r="295" ht="16.35" spans="8:8">
-      <c r="H295" s="27"/>
+      <c r="H295" s="28"/>
     </row>
     <row r="296" ht="16.35" spans="8:8">
-      <c r="H296" s="27"/>
+      <c r="H296" s="28"/>
     </row>
     <row r="297" ht="16.35" spans="8:8">
-      <c r="H297" s="27"/>
+      <c r="H297" s="28"/>
     </row>
     <row r="298" ht="16.35" spans="8:8">
-      <c r="H298" s="27"/>
+      <c r="H298" s="28"/>
     </row>
     <row r="299" ht="16.35" spans="8:8">
-      <c r="H299" s="27"/>
+      <c r="H299" s="28"/>
     </row>
     <row r="300" ht="16.35" spans="8:8">
-      <c r="H300" s="27"/>
+      <c r="H300" s="28"/>
     </row>
     <row r="301" ht="16.35" spans="8:8">
-      <c r="H301" s="27"/>
+      <c r="H301" s="28"/>
     </row>
     <row r="302" ht="16.35" spans="8:8">
-      <c r="H302" s="27"/>
+      <c r="H302" s="28"/>
     </row>
     <row r="303" ht="16.35" spans="8:8">
-      <c r="H303" s="27"/>
+      <c r="H303" s="28"/>
     </row>
     <row r="304" ht="16.35" spans="8:8">
-      <c r="H304" s="27"/>
+      <c r="H304" s="28"/>
     </row>
     <row r="305" ht="16.35" spans="8:8">
-      <c r="H305" s="27"/>
+      <c r="H305" s="28"/>
     </row>
     <row r="306" ht="16.35" spans="8:8">
-      <c r="H306" s="27"/>
+      <c r="H306" s="28"/>
     </row>
     <row r="307" ht="16.35" spans="8:8">
-      <c r="H307" s="27"/>
+      <c r="H307" s="28"/>
     </row>
     <row r="308" ht="16.35" spans="8:8">
-      <c r="H308" s="27"/>
+      <c r="H308" s="28"/>
     </row>
     <row r="309" ht="16.35" spans="8:8">
-      <c r="H309" s="27"/>
+      <c r="H309" s="28"/>
     </row>
     <row r="310" ht="16.35" spans="8:8">
-      <c r="H310" s="27"/>
+      <c r="H310" s="28"/>
     </row>
     <row r="311" ht="16.35" spans="8:8">
-      <c r="H311" s="27"/>
+      <c r="H311" s="28"/>
     </row>
     <row r="312" ht="16.35" spans="8:8">
-      <c r="H312" s="27"/>
+      <c r="H312" s="28"/>
     </row>
     <row r="313" ht="16.35" spans="8:8">
-      <c r="H313" s="27"/>
+      <c r="H313" s="28"/>
     </row>
     <row r="314" ht="16.35" spans="8:8">
-      <c r="H314" s="27"/>
+      <c r="H314" s="28"/>
     </row>
     <row r="315" ht="16.35" spans="8:8">
-      <c r="H315" s="27"/>
+      <c r="H315" s="28"/>
     </row>
     <row r="316" ht="16.35" spans="8:8">
-      <c r="H316" s="27"/>
+      <c r="H316" s="28"/>
     </row>
     <row r="317" ht="16.35" spans="8:8">
-      <c r="H317" s="27"/>
+      <c r="H317" s="28"/>
     </row>
     <row r="318" ht="16.35" spans="8:8">
-      <c r="H318" s="27"/>
+      <c r="H318" s="28"/>
     </row>
     <row r="319" ht="16.35" spans="8:8">
-      <c r="H319" s="27"/>
+      <c r="H319" s="28"/>
     </row>
     <row r="320" ht="16.35" spans="8:8">
-      <c r="H320" s="27"/>
+      <c r="H320" s="28"/>
     </row>
     <row r="321" ht="16.35" spans="8:8">
-      <c r="H321" s="27"/>
+      <c r="H321" s="28"/>
     </row>
     <row r="322" ht="16.35" spans="8:8">
-      <c r="H322" s="27"/>
+      <c r="H322" s="28"/>
     </row>
     <row r="323" ht="16.35" spans="8:8">
-      <c r="H323" s="27"/>
+      <c r="H323" s="28"/>
     </row>
     <row r="324" ht="16.35" spans="8:8">
-      <c r="H324" s="27"/>
+      <c r="H324" s="28"/>
     </row>
     <row r="325" ht="16.35" spans="8:8">
-      <c r="H325" s="27"/>
+      <c r="H325" s="28"/>
     </row>
     <row r="326" ht="16.35" spans="8:8">
-      <c r="H326" s="27"/>
+      <c r="H326" s="28"/>
     </row>
     <row r="327" ht="16.35" spans="8:8">
-      <c r="H327" s="27"/>
+      <c r="H327" s="28"/>
     </row>
     <row r="328" ht="16.35" spans="8:8">
-      <c r="H328" s="27"/>
+      <c r="H328" s="28"/>
     </row>
     <row r="329" ht="16.35" spans="8:8">
-      <c r="H329" s="27"/>
+      <c r="H329" s="28"/>
     </row>
     <row r="330" ht="16.35" spans="8:8">
-      <c r="H330" s="27"/>
+      <c r="H330" s="28"/>
     </row>
     <row r="331" ht="16.35" spans="8:8">
-      <c r="H331" s="27"/>
+      <c r="H331" s="28"/>
     </row>
     <row r="332" ht="16.35" spans="8:8">
-      <c r="H332" s="27"/>
+      <c r="H332" s="28"/>
     </row>
     <row r="333" ht="16.35" spans="8:8">
-      <c r="H333" s="27"/>
+      <c r="H333" s="28"/>
     </row>
     <row r="334" ht="16.35" spans="8:8">
-      <c r="H334" s="27"/>
+      <c r="H334" s="28"/>
     </row>
     <row r="335" ht="16.35" spans="8:8">
-      <c r="H335" s="27"/>
+      <c r="H335" s="28"/>
     </row>
     <row r="336" ht="16.35" spans="8:8">
-      <c r="H336" s="27"/>
+      <c r="H336" s="28"/>
     </row>
     <row r="337" ht="16.35" spans="8:8">
-      <c r="H337" s="27"/>
+      <c r="H337" s="28"/>
     </row>
     <row r="338" ht="16.35" spans="8:8">
-      <c r="H338" s="27"/>
+      <c r="H338" s="28"/>
     </row>
     <row r="339" ht="16.35" spans="8:8">
-      <c r="H339" s="27"/>
+      <c r="H339" s="28"/>
     </row>
     <row r="340" ht="16.35" spans="8:8">
-      <c r="H340" s="27"/>
+      <c r="H340" s="28"/>
     </row>
     <row r="341" ht="16.35" spans="8:8">
-      <c r="H341" s="27"/>
+      <c r="H341" s="28"/>
     </row>
     <row r="342" ht="16.35" spans="8:8">
-      <c r="H342" s="27"/>
+      <c r="H342" s="28"/>
     </row>
     <row r="343" ht="16.35" spans="8:8">
-      <c r="H343" s="27"/>
+      <c r="H343" s="28"/>
     </row>
     <row r="344" ht="16.35" spans="8:8">
-      <c r="H344" s="27"/>
+      <c r="H344" s="28"/>
     </row>
     <row r="345" ht="16.35" spans="8:8">
-      <c r="H345" s="27"/>
+      <c r="H345" s="28"/>
     </row>
     <row r="346" ht="16.35" spans="8:8">
-      <c r="H346" s="27"/>
+      <c r="H346" s="28"/>
     </row>
     <row r="347" ht="16.35" spans="8:8">
-      <c r="H347" s="27"/>
+      <c r="H347" s="28"/>
     </row>
     <row r="348" ht="16.35" spans="8:8">
-      <c r="H348" s="27"/>
+      <c r="H348" s="28"/>
     </row>
     <row r="349" ht="16.35" spans="8:8">
-      <c r="H349" s="27"/>
+      <c r="H349" s="28"/>
     </row>
     <row r="350" ht="16.35" spans="8:8">
-      <c r="H350" s="27"/>
+      <c r="H350" s="28"/>
     </row>
     <row r="351" ht="16.35" spans="8:8">
-      <c r="H351" s="27"/>
+      <c r="H351" s="28"/>
     </row>
     <row r="352" ht="16.35" spans="8:8">
-      <c r="H352" s="27"/>
+      <c r="H352" s="28"/>
     </row>
     <row r="353" ht="16.35" spans="8:8">
-      <c r="H353" s="27"/>
+      <c r="H353" s="28"/>
     </row>
     <row r="354" ht="16.35" spans="8:8">
-      <c r="H354" s="27"/>
+      <c r="H354" s="28"/>
     </row>
     <row r="355" ht="16.35" spans="8:8">
-      <c r="H355" s="27"/>
+      <c r="H355" s="28"/>
     </row>
     <row r="356" ht="16.35" spans="8:8">
-      <c r="H356" s="27"/>
+      <c r="H356" s="28"/>
     </row>
     <row r="357" ht="16.35" spans="8:8">
-      <c r="H357" s="27"/>
+      <c r="H357" s="28"/>
     </row>
     <row r="358" ht="16.35" spans="8:8">
-      <c r="H358" s="27"/>
+      <c r="H358" s="28"/>
     </row>
     <row r="359" ht="16.35" spans="8:8">
-      <c r="H359" s="27"/>
+      <c r="H359" s="28"/>
     </row>
     <row r="360" ht="16.35" spans="8:8">
-      <c r="H360" s="27"/>
+      <c r="H360" s="28"/>
     </row>
     <row r="361" ht="16.35" spans="8:8">
-      <c r="H361" s="27"/>
+      <c r="H361" s="28"/>
     </row>
     <row r="362" ht="16.35" spans="8:8">
-      <c r="H362" s="27"/>
+      <c r="H362" s="28"/>
     </row>
     <row r="363" ht="16.35" spans="8:8">
-      <c r="H363" s="27"/>
+      <c r="H363" s="28"/>
     </row>
     <row r="364" ht="16.35" spans="8:8">
-      <c r="H364" s="27"/>
+      <c r="H364" s="28"/>
     </row>
     <row r="365" ht="16.35" spans="8:8">
-      <c r="H365" s="27"/>
+      <c r="H365" s="28"/>
     </row>
     <row r="366" ht="16.35" spans="8:8">
-      <c r="H366" s="27"/>
+      <c r="H366" s="28"/>
     </row>
     <row r="367" ht="16.35" spans="8:8">
-      <c r="H367" s="27"/>
+      <c r="H367" s="28"/>
     </row>
     <row r="368" ht="16.35" spans="8:8">
-      <c r="H368" s="27"/>
+      <c r="H368" s="28"/>
     </row>
     <row r="369" ht="16.35" spans="8:8">
-      <c r="H369" s="27"/>
+      <c r="H369" s="28"/>
     </row>
     <row r="370" ht="16.35" spans="8:8">
-      <c r="H370" s="27"/>
+      <c r="H370" s="28"/>
     </row>
     <row r="371" ht="16.35" spans="8:8">
-      <c r="H371" s="27"/>
+      <c r="H371" s="28"/>
     </row>
     <row r="372" ht="16.35" spans="8:8">
-      <c r="H372" s="27"/>
+      <c r="H372" s="28"/>
     </row>
     <row r="373" ht="16.35" spans="8:8">
-      <c r="H373" s="27"/>
+      <c r="H373" s="28"/>
     </row>
     <row r="374" ht="16.35" spans="8:8">
-      <c r="H374" s="27"/>
+      <c r="H374" s="28"/>
     </row>
     <row r="375" ht="16.35" spans="8:8">
-      <c r="H375" s="27"/>
+      <c r="H375" s="28"/>
     </row>
     <row r="376" ht="16.35" spans="8:8">
-      <c r="H376" s="27"/>
+      <c r="H376" s="28"/>
     </row>
     <row r="377" ht="16.35" spans="8:8">
-      <c r="H377" s="27"/>
+      <c r="H377" s="28"/>
     </row>
     <row r="378" ht="16.35" spans="8:8">
-      <c r="H378" s="27"/>
+      <c r="H378" s="28"/>
     </row>
     <row r="379" ht="16.35" spans="8:8">
-      <c r="H379" s="27"/>
+      <c r="H379" s="28"/>
     </row>
     <row r="380" ht="16.35" spans="8:8">
-      <c r="H380" s="27"/>
+      <c r="H380" s="28"/>
     </row>
     <row r="381" ht="16.35" spans="8:8">
-      <c r="H381" s="27"/>
+      <c r="H381" s="28"/>
     </row>
     <row r="382" ht="16.35" spans="8:8">
-      <c r="H382" s="27"/>
+      <c r="H382" s="28"/>
     </row>
     <row r="383" ht="16.35" spans="8:8">
-      <c r="H383" s="27"/>
+      <c r="H383" s="28"/>
     </row>
     <row r="384" ht="16.35" spans="8:8">
-      <c r="H384" s="27"/>
+      <c r="H384" s="28"/>
     </row>
     <row r="385" ht="16.35" spans="8:8">
-      <c r="H385" s="27"/>
+      <c r="H385" s="28"/>
     </row>
     <row r="386" ht="16.35" spans="8:8">
-      <c r="H386" s="27"/>
+      <c r="H386" s="28"/>
     </row>
     <row r="387" ht="16.35" spans="8:8">
-      <c r="H387" s="27"/>
+      <c r="H387" s="28"/>
     </row>
     <row r="388" ht="16.35" spans="8:8">
-      <c r="H388" s="27"/>
+      <c r="H388" s="28"/>
     </row>
     <row r="389" ht="16.35" spans="8:8">
-      <c r="H389" s="27"/>
+      <c r="H389" s="28"/>
     </row>
     <row r="390" ht="16.35" spans="8:8">
-      <c r="H390" s="27"/>
+      <c r="H390" s="28"/>
     </row>
     <row r="391" ht="16.35" spans="8:8">
-      <c r="H391" s="27"/>
+      <c r="H391" s="28"/>
     </row>
     <row r="392" ht="16.35" spans="8:8">
-      <c r="H392" s="27"/>
+      <c r="H392" s="28"/>
     </row>
     <row r="393" ht="16.35" spans="8:8">
-      <c r="H393" s="27"/>
+      <c r="H393" s="28"/>
     </row>
     <row r="394" ht="16.35" spans="8:8">
-      <c r="H394" s="27"/>
+      <c r="H394" s="28"/>
     </row>
     <row r="395" ht="16.35" spans="8:8">
-      <c r="H395" s="27"/>
+      <c r="H395" s="28"/>
     </row>
     <row r="396" ht="16.35" spans="8:8">
-      <c r="H396" s="27"/>
+      <c r="H396" s="28"/>
     </row>
     <row r="397" ht="16.35" spans="8:8">
-      <c r="H397" s="27"/>
+      <c r="H397" s="28"/>
     </row>
     <row r="398" ht="16.35" spans="8:8">
-      <c r="H398" s="27"/>
+      <c r="H398" s="28"/>
     </row>
     <row r="399" ht="16.35" spans="8:8">
-      <c r="H399" s="27"/>
+      <c r="H399" s="28"/>
     </row>
     <row r="400" ht="16.35" spans="8:8">
-      <c r="H400" s="27"/>
+      <c r="H400" s="28"/>
     </row>
     <row r="401" ht="16.35" spans="8:8">
-      <c r="H401" s="27"/>
+      <c r="H401" s="28"/>
     </row>
     <row r="402" ht="16.35" spans="8:8">
-      <c r="H402" s="27"/>
+      <c r="H402" s="28"/>
     </row>
     <row r="403" ht="16.35" spans="8:8">
-      <c r="H403" s="27"/>
+      <c r="H403" s="28"/>
     </row>
     <row r="404" ht="16.35" spans="8:8">
-      <c r="H404" s="27"/>
+      <c r="H404" s="28"/>
     </row>
     <row r="405" ht="16.35" spans="8:8">
-      <c r="H405" s="27"/>
+      <c r="H405" s="28"/>
     </row>
     <row r="406" ht="16.35" spans="8:8">
-      <c r="H406" s="27"/>
+      <c r="H406" s="28"/>
     </row>
     <row r="407" ht="16.35" spans="8:8">
-      <c r="H407" s="27"/>
+      <c r="H407" s="28"/>
     </row>
     <row r="408" ht="16.35" spans="8:8">
-      <c r="H408" s="27"/>
+      <c r="H408" s="28"/>
     </row>
     <row r="409" ht="16.35" spans="8:8">
-      <c r="H409" s="27"/>
+      <c r="H409" s="28"/>
     </row>
     <row r="410" ht="16.35" spans="8:8">
-      <c r="H410" s="27"/>
+      <c r="H410" s="28"/>
     </row>
     <row r="411" ht="16.35" spans="8:8">
-      <c r="H411" s="27"/>
+      <c r="H411" s="28"/>
     </row>
     <row r="412" ht="16.35" spans="8:8">
-      <c r="H412" s="27"/>
+      <c r="H412" s="28"/>
     </row>
     <row r="413" ht="16.35" spans="8:8">
-      <c r="H413" s="27"/>
+      <c r="H413" s="28"/>
     </row>
     <row r="414" ht="16.35" spans="8:8">
-      <c r="H414" s="27"/>
+      <c r="H414" s="28"/>
     </row>
     <row r="415" ht="16.35" spans="8:8">
-      <c r="H415" s="27"/>
+      <c r="H415" s="28"/>
     </row>
     <row r="416" ht="16.35" spans="8:8">
-      <c r="H416" s="27"/>
+      <c r="H416" s="28"/>
     </row>
     <row r="417" ht="16.35" spans="8:8">
-      <c r="H417" s="27"/>
+      <c r="H417" s="28"/>
     </row>
     <row r="418" ht="16.35" spans="8:8">
-      <c r="H418" s="27"/>
+      <c r="H418" s="28"/>
     </row>
     <row r="419" ht="16.35" spans="8:8">
-      <c r="H419" s="27"/>
+      <c r="H419" s="28"/>
     </row>
     <row r="420" ht="16.35" spans="8:8">
-      <c r="H420" s="27"/>
+      <c r="H420" s="28"/>
     </row>
     <row r="421" ht="16.35" spans="8:8">
-      <c r="H421" s="27"/>
+      <c r="H421" s="28"/>
     </row>
     <row r="422" ht="16.35" spans="8:8">
-      <c r="H422" s="27"/>
+      <c r="H422" s="28"/>
     </row>
     <row r="423" ht="16.35" spans="8:8">
-      <c r="H423" s="27"/>
+      <c r="H423" s="28"/>
     </row>
     <row r="424" ht="16.35" spans="8:8">
-      <c r="H424" s="27"/>
+      <c r="H424" s="28"/>
     </row>
     <row r="425" ht="16.35" spans="8:8">
-      <c r="H425" s="27"/>
+      <c r="H425" s="28"/>
     </row>
     <row r="426" ht="16.35" spans="8:8">
-      <c r="H426" s="27"/>
+      <c r="H426" s="28"/>
     </row>
     <row r="427" ht="16.35" spans="8:8">
-      <c r="H427" s="27"/>
+      <c r="H427" s="28"/>
     </row>
     <row r="428" ht="16.35" spans="8:8">
-      <c r="H428" s="27"/>
+      <c r="H428" s="28"/>
     </row>
     <row r="429" ht="16.35" spans="8:8">
-      <c r="H429" s="27"/>
+      <c r="H429" s="28"/>
     </row>
     <row r="430" ht="16.35" spans="8:8">
-      <c r="H430" s="27"/>
+      <c r="H430" s="28"/>
     </row>
     <row r="431" ht="16.35" spans="8:8">
-      <c r="H431" s="27"/>
+      <c r="H431" s="28"/>
     </row>
     <row r="432" ht="16.35" spans="8:8">
-      <c r="H432" s="27"/>
+      <c r="H432" s="28"/>
     </row>
     <row r="433" ht="16.35" spans="8:8">
-      <c r="H433" s="27"/>
+      <c r="H433" s="28"/>
     </row>
     <row r="434" ht="16.35" spans="8:8">
-      <c r="H434" s="27"/>
+      <c r="H434" s="28"/>
     </row>
     <row r="435" ht="16.35" spans="8:8">
-      <c r="H435" s="27"/>
+      <c r="H435" s="28"/>
     </row>
     <row r="436" ht="16.35" spans="8:8">
-      <c r="H436" s="27"/>
+      <c r="H436" s="28"/>
     </row>
     <row r="437" ht="16.35" spans="8:8">
-      <c r="H437" s="27"/>
+      <c r="H437" s="28"/>
     </row>
     <row r="438" ht="16.35" spans="8:8">
-      <c r="H438" s="27"/>
+      <c r="H438" s="28"/>
     </row>
     <row r="439" ht="16.35" spans="8:8">
-      <c r="H439" s="27"/>
+      <c r="H439" s="28"/>
     </row>
     <row r="440" ht="16.35" spans="8:8">
-      <c r="H440" s="27"/>
+      <c r="H440" s="28"/>
     </row>
     <row r="441" ht="16.35" spans="8:8">
-      <c r="H441" s="27"/>
+      <c r="H441" s="28"/>
     </row>
     <row r="442" ht="16.35" spans="8:8">
-      <c r="H442" s="27"/>
+      <c r="H442" s="28"/>
     </row>
     <row r="443" ht="16.35" spans="8:8">
-      <c r="H443" s="27"/>
+      <c r="H443" s="28"/>
     </row>
     <row r="444" ht="16.35" spans="8:8">
-      <c r="H444" s="27"/>
+      <c r="H444" s="28"/>
     </row>
     <row r="445" ht="16.35" spans="8:8">
-      <c r="H445" s="27"/>
+      <c r="H445" s="28"/>
     </row>
     <row r="446" ht="16.35" spans="8:8">
-      <c r="H446" s="27"/>
+      <c r="H446" s="28"/>
     </row>
     <row r="447" ht="16.35" spans="8:8">
-      <c r="H447" s="27"/>
+      <c r="H447" s="28"/>
     </row>
     <row r="448" ht="16.35" spans="8:8">
-      <c r="H448" s="27"/>
+      <c r="H448" s="28"/>
     </row>
     <row r="449" ht="16.35" spans="8:8">
-      <c r="H449" s="27"/>
+      <c r="H449" s="28"/>
     </row>
     <row r="450" ht="16.35" spans="8:8">
-      <c r="H450" s="27"/>
+      <c r="H450" s="28"/>
     </row>
     <row r="451" ht="16.35" spans="8:8">
-      <c r="H451" s="27"/>
+      <c r="H451" s="28"/>
     </row>
     <row r="452" ht="16.35" spans="8:8">
-      <c r="H452" s="27"/>
+      <c r="H452" s="28"/>
     </row>
     <row r="453" ht="16.35" spans="8:8">
-      <c r="H453" s="27"/>
+      <c r="H453" s="28"/>
     </row>
     <row r="454" ht="16.35" spans="8:8">
-      <c r="H454" s="27"/>
+      <c r="H454" s="28"/>
     </row>
     <row r="455" ht="16.35" spans="8:8">
-      <c r="H455" s="27"/>
+      <c r="H455" s="28"/>
     </row>
     <row r="456" ht="16.35" spans="8:8">
-      <c r="H456" s="27"/>
+      <c r="H456" s="28"/>
     </row>
     <row r="457" ht="16.35" spans="8:8">
-      <c r="H457" s="27"/>
+      <c r="H457" s="28"/>
     </row>
     <row r="458" ht="16.35" spans="8:8">
-      <c r="H458" s="27"/>
+      <c r="H458" s="28"/>
     </row>
     <row r="459" ht="16.35" spans="8:8">
-      <c r="H459" s="27"/>
+      <c r="H459" s="28"/>
     </row>
     <row r="460" ht="16.35" spans="8:8">
-      <c r="H460" s="27"/>
+      <c r="H460" s="28"/>
     </row>
     <row r="461" ht="16.35" spans="8:8">
-      <c r="H461" s="27"/>
+      <c r="H461" s="28"/>
     </row>
     <row r="462" ht="16.35" spans="8:8">
-      <c r="H462" s="27"/>
+      <c r="H462" s="28"/>
     </row>
     <row r="463" ht="16.35" spans="8:8">
-      <c r="H463" s="27"/>
+      <c r="H463" s="28"/>
     </row>
     <row r="464" ht="16.35" spans="8:8">
-      <c r="H464" s="27"/>
+      <c r="H464" s="28"/>
     </row>
     <row r="465" ht="16.35" spans="8:8">
-      <c r="H465" s="27"/>
+      <c r="H465" s="28"/>
     </row>
     <row r="466" ht="16.35" spans="8:8">
-      <c r="H466" s="27"/>
+      <c r="H466" s="28"/>
     </row>
     <row r="467" ht="16.35" spans="8:8">
-      <c r="H467" s="27"/>
+      <c r="H467" s="28"/>
     </row>
     <row r="468" ht="16.35" spans="8:8">
-      <c r="H468" s="27"/>
+      <c r="H468" s="28"/>
     </row>
     <row r="469" ht="16.35" spans="8:8">
-      <c r="H469" s="27"/>
+      <c r="H469" s="28"/>
     </row>
     <row r="470" ht="16.35" spans="8:8">
-      <c r="H470" s="27"/>
+      <c r="H470" s="28"/>
     </row>
     <row r="471" ht="16.35" spans="8:8">
-      <c r="H471" s="27"/>
+      <c r="H471" s="28"/>
     </row>
     <row r="472" ht="16.35" spans="8:8">
-      <c r="H472" s="27"/>
+      <c r="H472" s="28"/>
     </row>
     <row r="473" ht="16.35" spans="8:8">
-      <c r="H473" s="27"/>
+      <c r="H473" s="28"/>
     </row>
     <row r="474" ht="16.35" spans="8:8">
-      <c r="H474" s="27"/>
+      <c r="H474" s="28"/>
     </row>
     <row r="475" ht="16.35" spans="8:8">
-      <c r="H475" s="27"/>
+      <c r="H475" s="28"/>
     </row>
     <row r="476" ht="16.35" spans="8:8">
-      <c r="H476" s="27"/>
+      <c r="H476" s="28"/>
     </row>
     <row r="477" ht="16.35" spans="8:8">
-      <c r="H477" s="27"/>
+      <c r="H477" s="28"/>
     </row>
     <row r="478" ht="16.35" spans="8:8">
-      <c r="H478" s="27"/>
+      <c r="H478" s="28"/>
     </row>
     <row r="479" ht="16.35" spans="8:8">
-      <c r="H479" s="27"/>
+      <c r="H479" s="28"/>
     </row>
     <row r="480" ht="16.35" spans="8:8">
-      <c r="H480" s="27"/>
+      <c r="H480" s="28"/>
     </row>
     <row r="481" ht="16.35" spans="8:8">
-      <c r="H481" s="27"/>
+      <c r="H481" s="28"/>
     </row>
     <row r="482" ht="16.35" spans="8:8">
-      <c r="H482" s="27"/>
+      <c r="H482" s="28"/>
     </row>
     <row r="483" ht="16.35" spans="8:8">
-      <c r="H483" s="27"/>
+      <c r="H483" s="28"/>
     </row>
     <row r="484" ht="16.35" spans="8:8">
-      <c r="H484" s="27"/>
+      <c r="H484" s="28"/>
     </row>
     <row r="485" ht="16.35" spans="8:8">
-      <c r="H485" s="27"/>
+      <c r="H485" s="28"/>
     </row>
     <row r="486" ht="16.35" spans="8:8">
-      <c r="H486" s="27"/>
+      <c r="H486" s="28"/>
     </row>
     <row r="487" ht="16.35" spans="8:8">
-      <c r="H487" s="27"/>
+      <c r="H487" s="28"/>
     </row>
     <row r="488" ht="16.35" spans="8:8">
-      <c r="H488" s="27"/>
+      <c r="H488" s="28"/>
     </row>
     <row r="489" ht="16.35" spans="8:8">
-      <c r="H489" s="27"/>
+      <c r="H489" s="28"/>
     </row>
     <row r="490" ht="16.35" spans="8:8">
-      <c r="H490" s="27"/>
+      <c r="H490" s="28"/>
     </row>
     <row r="491" ht="16.35" spans="8:8">
-      <c r="H491" s="27"/>
+      <c r="H491" s="28"/>
     </row>
     <row r="492" ht="16.35" spans="8:8">
-      <c r="H492" s="27"/>
+      <c r="H492" s="28"/>
     </row>
     <row r="493" ht="16.35" spans="8:8">
-      <c r="H493" s="27"/>
+      <c r="H493" s="28"/>
     </row>
     <row r="494" ht="16.35" spans="8:8">
-      <c r="H494" s="27"/>
+      <c r="H494" s="28"/>
     </row>
     <row r="495" ht="16.35" spans="8:8">
-      <c r="H495" s="27"/>
+      <c r="H495" s="28"/>
     </row>
     <row r="496" ht="16.35" spans="8:8">
-      <c r="H496" s="27"/>
+      <c r="H496" s="28"/>
     </row>
     <row r="497" ht="16.35" spans="8:8">
-      <c r="H497" s="27"/>
+      <c r="H497" s="28"/>
     </row>
     <row r="498" ht="16.35" spans="8:8">
-      <c r="H498" s="27"/>
+      <c r="H498" s="28"/>
     </row>
     <row r="499" ht="16.35" spans="8:8">
-      <c r="H499" s="27"/>
+      <c r="H499" s="28"/>
     </row>
     <row r="500" ht="16.35" spans="8:8">
-      <c r="H500" s="27"/>
+      <c r="H500" s="28"/>
     </row>
     <row r="501" ht="16.35" spans="8:8">
-      <c r="H501" s="27"/>
+      <c r="H501" s="28"/>
     </row>
     <row r="502" ht="16.35" spans="8:8">
-      <c r="H502" s="27"/>
+      <c r="H502" s="28"/>
     </row>
     <row r="503" ht="16.35" spans="8:8">
-      <c r="H503" s="27"/>
+      <c r="H503" s="28"/>
     </row>
     <row r="504" ht="16.35" spans="8:8">
-      <c r="H504" s="27"/>
+      <c r="H504" s="28"/>
     </row>
     <row r="505" ht="16.35" spans="8:8">
-      <c r="H505" s="27"/>
+      <c r="H505" s="28"/>
     </row>
     <row r="506" ht="16.35" spans="8:8">
-      <c r="H506" s="27"/>
+      <c r="H506" s="28"/>
     </row>
     <row r="507" ht="16.35" spans="8:8">
-      <c r="H507" s="27"/>
+      <c r="H507" s="28"/>
     </row>
     <row r="508" ht="16.35" spans="8:8">
-      <c r="H508" s="27"/>
+      <c r="H508" s="28"/>
     </row>
     <row r="509" ht="16.35" spans="8:8">
-      <c r="H509" s="27"/>
+      <c r="H509" s="28"/>
     </row>
     <row r="510" ht="16.35" spans="8:8">
-      <c r="H510" s="27"/>
+      <c r="H510" s="28"/>
     </row>
     <row r="511" ht="16.35" spans="8:8">
-      <c r="H511" s="27"/>
+      <c r="H511" s="28"/>
     </row>
     <row r="512" ht="16.35" spans="8:8">
-      <c r="H512" s="27"/>
+      <c r="H512" s="28"/>
     </row>
     <row r="513" ht="16.35" spans="8:8">
-      <c r="H513" s="27"/>
+      <c r="H513" s="28"/>
     </row>
     <row r="514" ht="16.35" spans="8:8">
-      <c r="H514" s="27"/>
+      <c r="H514" s="28"/>
     </row>
     <row r="515" ht="16.35" spans="8:8">
-      <c r="H515" s="27"/>
+      <c r="H515" s="28"/>
     </row>
     <row r="516" ht="16.35" spans="8:8">
-      <c r="H516" s="27"/>
+      <c r="H516" s="28"/>
     </row>
     <row r="517" ht="16.35" spans="8:8">
-      <c r="H517" s="27"/>
+      <c r="H517" s="28"/>
     </row>
     <row r="518" ht="16.35" spans="8:8">
-      <c r="H518" s="27"/>
+      <c r="H518" s="28"/>
     </row>
     <row r="519" ht="16.35" spans="8:8">
-      <c r="H519" s="27"/>
+      <c r="H519" s="28"/>
     </row>
     <row r="520" ht="16.35" spans="8:8">
-      <c r="H520" s="27"/>
+      <c r="H520" s="28"/>
     </row>
     <row r="521" ht="16.35" spans="8:8">
-      <c r="H521" s="27"/>
+      <c r="H521" s="28"/>
     </row>
     <row r="522" ht="16.35" spans="8:8">
-      <c r="H522" s="27"/>
+      <c r="H522" s="28"/>
     </row>
     <row r="523" ht="16.35" spans="8:8">
-      <c r="H523" s="27"/>
+      <c r="H523" s="28"/>
     </row>
     <row r="524" ht="16.35" spans="8:8">
-      <c r="H524" s="27"/>
+      <c r="H524" s="28"/>
     </row>
     <row r="525" ht="16.35" spans="8:8">
-      <c r="H525" s="27"/>
+      <c r="H525" s="28"/>
     </row>
     <row r="526" ht="16.35" spans="8:8">
-      <c r="H526" s="27"/>
+      <c r="H526" s="28"/>
     </row>
     <row r="527" ht="16.35" spans="8:8">
-      <c r="H527" s="27"/>
+      <c r="H527" s="28"/>
     </row>
     <row r="528" ht="16.35" spans="8:8">
-      <c r="H528" s="27"/>
+      <c r="H528" s="28"/>
     </row>
     <row r="529" ht="16.35" spans="8:8">
-      <c r="H529" s="27"/>
+      <c r="H529" s="28"/>
     </row>
     <row r="530" ht="16.35" spans="8:8">
-      <c r="H530" s="27"/>
+      <c r="H530" s="28"/>
     </row>
     <row r="531" ht="16.35" spans="8:8">
-      <c r="H531" s="27"/>
+      <c r="H531" s="28"/>
     </row>
     <row r="532" ht="16.35" spans="8:8">
-      <c r="H532" s="27"/>
+      <c r="H532" s="28"/>
     </row>
     <row r="533" ht="16.35" spans="8:8">
-      <c r="H533" s="27"/>
+      <c r="H533" s="28"/>
     </row>
     <row r="534" ht="16.35" spans="8:8">
-      <c r="H534" s="27"/>
+      <c r="H534" s="28"/>
     </row>
     <row r="535" ht="16.35" spans="8:8">
-      <c r="H535" s="27"/>
+      <c r="H535" s="28"/>
     </row>
     <row r="536" ht="16.35" spans="8:8">
-      <c r="H536" s="27"/>
+      <c r="H536" s="28"/>
     </row>
     <row r="537" ht="16.35" spans="8:8">
-      <c r="H537" s="27"/>
+      <c r="H537" s="28"/>
     </row>
     <row r="538" ht="16.35" spans="8:8">
-      <c r="H538" s="27"/>
+      <c r="H538" s="28"/>
     </row>
     <row r="539" ht="16.35" spans="8:8">
-      <c r="H539" s="27"/>
+      <c r="H539" s="28"/>
     </row>
     <row r="540" ht="16.35" spans="8:8">
-      <c r="H540" s="27"/>
+      <c r="H540" s="28"/>
     </row>
     <row r="541" ht="16.35" spans="8:8">
-      <c r="H541" s="27"/>
+      <c r="H541" s="28"/>
     </row>
     <row r="542" ht="16.35" spans="8:8">
-      <c r="H542" s="27"/>
+      <c r="H542" s="28"/>
     </row>
     <row r="543" ht="16.35" spans="8:8">
-      <c r="H543" s="27"/>
+      <c r="H543" s="28"/>
     </row>
     <row r="544" ht="16.35" spans="8:8">
-      <c r="H544" s="27"/>
+      <c r="H544" s="28"/>
     </row>
     <row r="545" ht="16.35" spans="8:8">
-      <c r="H545" s="27"/>
+      <c r="H545" s="28"/>
     </row>
     <row r="546" ht="16.35" spans="8:8">
-      <c r="H546" s="27"/>
+      <c r="H546" s="28"/>
     </row>
     <row r="547" ht="16.35" spans="8:8">
-      <c r="H547" s="27"/>
+      <c r="H547" s="28"/>
     </row>
     <row r="548" ht="16.35" spans="8:8">
-      <c r="H548" s="27"/>
+      <c r="H548" s="28"/>
     </row>
     <row r="549" ht="16.35" spans="8:8">
-      <c r="H549" s="27"/>
+      <c r="H549" s="28"/>
     </row>
     <row r="550" ht="16.35" spans="8:8">
-      <c r="H550" s="27"/>
+      <c r="H550" s="28"/>
     </row>
     <row r="551" ht="16.35" spans="8:8">
-      <c r="H551" s="27"/>
+      <c r="H551" s="28"/>
     </row>
     <row r="552" ht="16.35" spans="8:8">
-      <c r="H552" s="27"/>
+      <c r="H552" s="28"/>
     </row>
     <row r="553" ht="16.35" spans="8:8">
-      <c r="H553" s="27"/>
+      <c r="H553" s="28"/>
     </row>
     <row r="554" ht="16.35" spans="8:8">
-      <c r="H554" s="27"/>
+      <c r="H554" s="28"/>
     </row>
     <row r="555" ht="16.35" spans="8:8">
-      <c r="H555" s="27"/>
+      <c r="H555" s="28"/>
     </row>
     <row r="556" ht="16.35" spans="8:8">
-      <c r="H556" s="27"/>
+      <c r="H556" s="28"/>
     </row>
     <row r="557" ht="16.35" spans="8:8">
-      <c r="H557" s="27"/>
+      <c r="H557" s="28"/>
     </row>
     <row r="558" ht="16.35" spans="8:8">
-      <c r="H558" s="27"/>
+      <c r="H558" s="28"/>
     </row>
     <row r="559" ht="16.35" spans="8:8">
-      <c r="H559" s="27"/>
+      <c r="H559" s="28"/>
     </row>
     <row r="560" ht="16.35" spans="8:8">
-      <c r="H560" s="27"/>
+      <c r="H560" s="28"/>
     </row>
     <row r="561" ht="16.35" spans="8:8">
-      <c r="H561" s="27"/>
+      <c r="H561" s="28"/>
     </row>
     <row r="562" ht="16.35" spans="8:8">
-      <c r="H562" s="27"/>
+      <c r="H562" s="28"/>
     </row>
     <row r="563" ht="16.35" spans="8:8">
-      <c r="H563" s="27"/>
+      <c r="H563" s="28"/>
     </row>
     <row r="564" ht="16.35" spans="8:8">
-      <c r="H564" s="27"/>
+      <c r="H564" s="28"/>
     </row>
     <row r="565" ht="16.35" spans="8:8">
-      <c r="H565" s="27"/>
+      <c r="H565" s="28"/>
     </row>
     <row r="566" ht="16.35" spans="8:8">
-      <c r="H566" s="27"/>
+      <c r="H566" s="28"/>
     </row>
     <row r="567" ht="16.35" spans="8:8">
-      <c r="H567" s="27"/>
+      <c r="H567" s="28"/>
     </row>
     <row r="568" ht="16.35" spans="8:8">
-      <c r="H568" s="27"/>
+      <c r="H568" s="28"/>
     </row>
     <row r="569" ht="16.35" spans="8:8">
-      <c r="H569" s="27"/>
+      <c r="H569" s="28"/>
     </row>
     <row r="570" ht="16.35" spans="8:8">
-      <c r="H570" s="27"/>
+      <c r="H570" s="28"/>
     </row>
     <row r="571" ht="16.35" spans="8:8">
-      <c r="H571" s="27"/>
+      <c r="H571" s="28"/>
     </row>
     <row r="572" ht="16.35" spans="8:8">
-      <c r="H572" s="27"/>
+      <c r="H572" s="28"/>
     </row>
     <row r="573" ht="16.35" spans="8:8">
-      <c r="H573" s="27"/>
+      <c r="H573" s="28"/>
     </row>
     <row r="574" ht="16.35" spans="8:8">
-      <c r="H574" s="27"/>
+      <c r="H574" s="28"/>
     </row>
     <row r="575" ht="16.35" spans="8:8">
-      <c r="H575" s="27"/>
+      <c r="H575" s="28"/>
     </row>
     <row r="576" ht="16.35" spans="8:8">
-      <c r="H576" s="27"/>
+      <c r="H576" s="28"/>
     </row>
     <row r="577" ht="16.35" spans="8:8">
-      <c r="H577" s="27"/>
+      <c r="H577" s="28"/>
     </row>
     <row r="578" ht="16.35" spans="8:8">
-      <c r="H578" s="27"/>
+      <c r="H578" s="28"/>
     </row>
     <row r="579" ht="16.35" spans="8:8">
-      <c r="H579" s="27"/>
+      <c r="H579" s="28"/>
     </row>
     <row r="580" ht="16.35" spans="8:8">
-      <c r="H580" s="27"/>
+      <c r="H580" s="28"/>
     </row>
     <row r="581" ht="16.35" spans="8:8">
-      <c r="H581" s="27"/>
+      <c r="H581" s="28"/>
     </row>
     <row r="582" ht="16.35" spans="8:8">
-      <c r="H582" s="27"/>
+      <c r="H582" s="28"/>
     </row>
     <row r="583" ht="16.35" spans="8:8">
-      <c r="H583" s="27"/>
+      <c r="H583" s="28"/>
     </row>
     <row r="584" ht="16.35" spans="8:8">
-      <c r="H584" s="27"/>
+      <c r="H584" s="28"/>
     </row>
     <row r="585" ht="16.35" spans="8:8">
-      <c r="H585" s="27"/>
+      <c r="H585" s="28"/>
     </row>
     <row r="586" ht="16.35" spans="8:8">
-      <c r="H586" s="27"/>
+      <c r="H586" s="28"/>
     </row>
     <row r="587" ht="16.35" spans="8:8">
-      <c r="H587" s="27"/>
+      <c r="H587" s="28"/>
     </row>
     <row r="588" ht="16.35" spans="8:8">
-      <c r="H588" s="27"/>
+      <c r="H588" s="28"/>
     </row>
     <row r="589" ht="16.35" spans="8:8">
-      <c r="H589" s="27"/>
+      <c r="H589" s="28"/>
     </row>
     <row r="590" ht="16.35" spans="8:8">
-      <c r="H590" s="27"/>
+      <c r="H590" s="28"/>
     </row>
     <row r="591" ht="16.35" spans="8:8">
-      <c r="H591" s="27"/>
+      <c r="H591" s="28"/>
     </row>
     <row r="592" ht="16.35" spans="8:8">
-      <c r="H592" s="27"/>
+      <c r="H592" s="28"/>
     </row>
     <row r="593" ht="16.35" spans="8:8">
-      <c r="H593" s="27"/>
+      <c r="H593" s="28"/>
     </row>
     <row r="594" ht="16.35" spans="8:8">
-      <c r="H594" s="27"/>
+      <c r="H594" s="28"/>
     </row>
     <row r="595" ht="16.35" spans="8:8">
-      <c r="H595" s="27"/>
+      <c r="H595" s="28"/>
     </row>
     <row r="596" ht="16.35" spans="8:8">
-      <c r="H596" s="27"/>
+      <c r="H596" s="28"/>
     </row>
     <row r="597" ht="16.35" spans="8:8">
-      <c r="H597" s="27"/>
+      <c r="H597" s="28"/>
     </row>
     <row r="598" ht="16.35" spans="8:8">
-      <c r="H598" s="27"/>
+      <c r="H598" s="28"/>
     </row>
     <row r="599" ht="16.35" spans="8:8">
-      <c r="H599" s="27"/>
+      <c r="H599" s="28"/>
     </row>
     <row r="600" ht="16.35" spans="8:8">
-      <c r="H600" s="27"/>
+      <c r="H600" s="28"/>
     </row>
     <row r="601" ht="16.35" spans="8:8">
-      <c r="H601" s="27"/>
+      <c r="H601" s="28"/>
     </row>
     <row r="602" ht="16.35" spans="8:8">
-      <c r="H602" s="27"/>
+      <c r="H602" s="28"/>
     </row>
     <row r="603" ht="16.35" spans="8:8">
-      <c r="H603" s="27"/>
+      <c r="H603" s="28"/>
     </row>
     <row r="604" ht="16.35" spans="8:8">
-      <c r="H604" s="27"/>
+      <c r="H604" s="28"/>
     </row>
     <row r="605" ht="16.35" spans="8:8">
-      <c r="H605" s="27"/>
+      <c r="H605" s="28"/>
     </row>
     <row r="606" ht="16.35" spans="8:8">
-      <c r="H606" s="27"/>
+      <c r="H606" s="28"/>
     </row>
     <row r="607" ht="16.35" spans="8:8">
-      <c r="H607" s="27"/>
+      <c r="H607" s="28"/>
     </row>
     <row r="608" ht="16.35" spans="8:8">
-      <c r="H608" s="27"/>
+      <c r="H608" s="28"/>
     </row>
     <row r="609" ht="16.35" spans="8:8">
-      <c r="H609" s="27"/>
+      <c r="H609" s="28"/>
     </row>
     <row r="610" ht="16.35" spans="8:8">
-      <c r="H610" s="27"/>
+      <c r="H610" s="28"/>
     </row>
     <row r="611" ht="16.35" spans="8:8">
-      <c r="H611" s="27"/>
+      <c r="H611" s="28"/>
     </row>
     <row r="612" ht="16.35" spans="8:8">
-      <c r="H612" s="27"/>
+      <c r="H612" s="28"/>
     </row>
     <row r="613" ht="16.35" spans="8:8">
-      <c r="H613" s="27"/>
+      <c r="H613" s="28"/>
     </row>
     <row r="614" ht="16.35" spans="8:8">
-      <c r="H614" s="27"/>
+      <c r="H614" s="28"/>
     </row>
     <row r="615" ht="16.35" spans="8:8">
-      <c r="H615" s="27"/>
+      <c r="H615" s="28"/>
     </row>
     <row r="616" ht="16.35" spans="8:8">
-      <c r="H616" s="27"/>
+      <c r="H616" s="28"/>
     </row>
     <row r="617" ht="16.35" spans="8:8">
-      <c r="H617" s="27"/>
+      <c r="H617" s="28"/>
     </row>
     <row r="618" ht="16.35" spans="8:8">
-      <c r="H618" s="27"/>
+      <c r="H618" s="28"/>
     </row>
     <row r="619" ht="16.35" spans="8:8">
-      <c r="H619" s="27"/>
+      <c r="H619" s="28"/>
     </row>
     <row r="620" ht="16.35" spans="8:8">
-      <c r="H620" s="27"/>
+      <c r="H620" s="28"/>
     </row>
     <row r="621" ht="16.35" spans="8:8">
-      <c r="H621" s="27"/>
+      <c r="H621" s="28"/>
     </row>
     <row r="622" ht="16.35" spans="8:8">
-      <c r="H622" s="27"/>
+      <c r="H622" s="28"/>
     </row>
     <row r="623" ht="16.35" spans="8:8">
-      <c r="H623" s="27"/>
+      <c r="H623" s="28"/>
     </row>
     <row r="624" ht="16.35" spans="8:8">
-      <c r="H624" s="27"/>
+      <c r="H624" s="28"/>
     </row>
     <row r="625" ht="16.35" spans="8:8">
-      <c r="H625" s="27"/>
+      <c r="H625" s="28"/>
     </row>
     <row r="626" ht="16.35" spans="8:8">
-      <c r="H626" s="27"/>
+      <c r="H626" s="28"/>
     </row>
     <row r="627" ht="16.35" spans="8:8">
-      <c r="H627" s="27"/>
+      <c r="H627" s="28"/>
     </row>
     <row r="628" ht="16.35" spans="8:8">
-      <c r="H628" s="27"/>
+      <c r="H628" s="28"/>
     </row>
     <row r="629" ht="16.35" spans="8:8">
-      <c r="H629" s="27"/>
+      <c r="H629" s="28"/>
     </row>
     <row r="630" ht="16.35" spans="8:8">
-      <c r="H630" s="27"/>
+      <c r="H630" s="28"/>
     </row>
     <row r="631" ht="16.35" spans="8:8">
-      <c r="H631" s="27"/>
+      <c r="H631" s="28"/>
     </row>
     <row r="632" ht="16.35" spans="8:8">
-      <c r="H632" s="27"/>
+      <c r="H632" s="28"/>
     </row>
     <row r="633" ht="16.35" spans="8:8">
-      <c r="H633" s="27"/>
+      <c r="H633" s="28"/>
     </row>
     <row r="634" ht="16.35" spans="8:8">
-      <c r="H634" s="27"/>
+      <c r="H634" s="28"/>
     </row>
     <row r="635" ht="16.35" spans="8:8">
-      <c r="H635" s="27"/>
+      <c r="H635" s="28"/>
     </row>
     <row r="636" ht="16.35" spans="8:8">
-      <c r="H636" s="27"/>
+      <c r="H636" s="28"/>
     </row>
     <row r="637" ht="16.35" spans="8:8">
-      <c r="H637" s="27"/>
+      <c r="H637" s="28"/>
     </row>
     <row r="638" ht="16.35" spans="8:8">
-      <c r="H638" s="27"/>
+      <c r="H638" s="28"/>
     </row>
     <row r="639" ht="16.35" spans="8:8">
-      <c r="H639" s="27"/>
+      <c r="H639" s="28"/>
     </row>
     <row r="640" ht="16.35" spans="8:8">
-      <c r="H640" s="27"/>
+      <c r="H640" s="28"/>
     </row>
     <row r="641" ht="16.35" spans="8:8">
-      <c r="H641" s="27"/>
+      <c r="H641" s="28"/>
     </row>
     <row r="642" ht="16.35" spans="8:8">
-      <c r="H642" s="27"/>
+      <c r="H642" s="28"/>
     </row>
     <row r="643" ht="16.35" spans="8:8">
-      <c r="H643" s="27"/>
+      <c r="H643" s="28"/>
     </row>
     <row r="644" ht="16.35" spans="8:8">
-      <c r="H644" s="27"/>
+      <c r="H644" s="28"/>
     </row>
     <row r="645" ht="16.35" spans="8:8">
-      <c r="H645" s="27"/>
+      <c r="H645" s="28"/>
     </row>
     <row r="646" ht="16.35" spans="8:8">
-      <c r="H646" s="27"/>
+      <c r="H646" s="28"/>
     </row>
     <row r="647" ht="16.35" spans="8:8">
-      <c r="H647" s="27"/>
+      <c r="H647" s="28"/>
     </row>
     <row r="648" ht="16.35" spans="8:8">
-      <c r="H648" s="27"/>
+      <c r="H648" s="28"/>
     </row>
     <row r="649" ht="16.35" spans="8:8">
-      <c r="H649" s="27"/>
+      <c r="H649" s="28"/>
     </row>
     <row r="650" ht="16.35" spans="8:8">
-      <c r="H650" s="27"/>
+      <c r="H650" s="28"/>
     </row>
     <row r="651" ht="16.35" spans="8:8">
-      <c r="H651" s="27"/>
+      <c r="H651" s="28"/>
     </row>
     <row r="652" ht="16.35" spans="8:8">
-      <c r="H652" s="27"/>
+      <c r="H652" s="28"/>
     </row>
     <row r="653" ht="16.35" spans="8:8">
-      <c r="H653" s="27"/>
+      <c r="H653" s="28"/>
     </row>
     <row r="654" ht="16.35" spans="8:8">
-      <c r="H654" s="27"/>
+      <c r="H654" s="28"/>
     </row>
     <row r="655" ht="16.35" spans="8:8">
-      <c r="H655" s="27"/>
+      <c r="H655" s="28"/>
     </row>
     <row r="656" ht="16.35" spans="8:8">
-      <c r="H656" s="27"/>
+      <c r="H656" s="28"/>
     </row>
     <row r="657" ht="16.35" spans="8:8">
-      <c r="H657" s="27"/>
+      <c r="H657" s="28"/>
     </row>
     <row r="658" ht="16.35" spans="8:8">
-      <c r="H658" s="27"/>
+      <c r="H658" s="28"/>
     </row>
     <row r="659" ht="16.35" spans="8:8">
-      <c r="H659" s="27"/>
+      <c r="H659" s="28"/>
     </row>
     <row r="660" ht="16.35" spans="8:8">
-      <c r="H660" s="27"/>
+      <c r="H660" s="28"/>
     </row>
     <row r="661" ht="16.35" spans="8:8">
-      <c r="H661" s="27"/>
+      <c r="H661" s="28"/>
     </row>
     <row r="662" ht="16.35" spans="8:8">
-      <c r="H662" s="27"/>
+      <c r="H662" s="28"/>
     </row>
     <row r="663" ht="16.35" spans="8:8">
-      <c r="H663" s="27"/>
+      <c r="H663" s="28"/>
     </row>
     <row r="664" ht="16.35" spans="8:8">
-      <c r="H664" s="27"/>
+      <c r="H664" s="28"/>
     </row>
     <row r="665" ht="16.35" spans="8:8">
-      <c r="H665" s="27"/>
+      <c r="H665" s="28"/>
     </row>
     <row r="666" ht="16.35" spans="8:8">
-      <c r="H666" s="27"/>
+      <c r="H666" s="28"/>
     </row>
     <row r="667" ht="16.35" spans="8:8">
-      <c r="H667" s="27"/>
+      <c r="H667" s="28"/>
     </row>
     <row r="668" ht="16.35" spans="8:8">
-      <c r="H668" s="27"/>
+      <c r="H668" s="28"/>
     </row>
     <row r="669" ht="16.35" spans="8:8">
-      <c r="H669" s="27"/>
+      <c r="H669" s="28"/>
     </row>
     <row r="670" ht="16.35" spans="8:8">
-      <c r="H670" s="27"/>
+      <c r="H670" s="28"/>
     </row>
     <row r="671" ht="16.35" spans="8:8">
-      <c r="H671" s="27"/>
+      <c r="H671" s="28"/>
     </row>
     <row r="672" ht="16.35" spans="8:8">
-      <c r="H672" s="27"/>
+      <c r="H672" s="28"/>
     </row>
     <row r="673" ht="16.35" spans="8:8">
-      <c r="H673" s="27"/>
+      <c r="H673" s="28"/>
     </row>
     <row r="674" ht="16.35" spans="8:8">
-      <c r="H674" s="27"/>
+      <c r="H674" s="28"/>
     </row>
     <row r="675" ht="16.35" spans="8:8">
-      <c r="H675" s="27"/>
+      <c r="H675" s="28"/>
     </row>
     <row r="676" ht="16.35" spans="8:8">
-      <c r="H676" s="27"/>
+      <c r="H676" s="28"/>
     </row>
     <row r="677" ht="16.35" spans="8:8">
-      <c r="H677" s="27"/>
+      <c r="H677" s="28"/>
     </row>
     <row r="678" ht="16.35" spans="8:8">
-      <c r="H678" s="27"/>
+      <c r="H678" s="28"/>
     </row>
     <row r="679" ht="16.35" spans="8:8">
-      <c r="H679" s="27"/>
+      <c r="H679" s="28"/>
     </row>
     <row r="680" ht="16.35" spans="8:8">
-      <c r="H680" s="27"/>
+      <c r="H680" s="28"/>
     </row>
     <row r="681" ht="16.35" spans="8:8">
-      <c r="H681" s="27"/>
+      <c r="H681" s="28"/>
     </row>
     <row r="682" ht="16.35" spans="8:8">
-      <c r="H682" s="27"/>
+      <c r="H682" s="28"/>
     </row>
     <row r="683" ht="16.35" spans="8:8">
-      <c r="H683" s="27"/>
+      <c r="H683" s="28"/>
     </row>
     <row r="684" ht="16.35" spans="8:8">
-      <c r="H684" s="27"/>
+      <c r="H684" s="28"/>
     </row>
     <row r="685" ht="16.35" spans="8:8">
-      <c r="H685" s="27"/>
+      <c r="H685" s="28"/>
     </row>
     <row r="686" ht="16.35" spans="8:8">
-      <c r="H686" s="27"/>
+      <c r="H686" s="28"/>
     </row>
     <row r="687" ht="16.35" spans="8:8">
-      <c r="H687" s="27"/>
+      <c r="H687" s="28"/>
     </row>
     <row r="688" ht="16.35" spans="8:8">
-      <c r="H688" s="27"/>
+      <c r="H688" s="28"/>
     </row>
     <row r="689" ht="16.35" spans="8:8">
-      <c r="H689" s="27"/>
+      <c r="H689" s="28"/>
     </row>
     <row r="690" ht="16.35" spans="8:8">
-      <c r="H690" s="27"/>
+      <c r="H690" s="28"/>
     </row>
     <row r="691" ht="16.35" spans="8:8">
-      <c r="H691" s="27"/>
+      <c r="H691" s="28"/>
     </row>
     <row r="692" ht="16.35" spans="8:8">
-      <c r="H692" s="27"/>
+      <c r="H692" s="28"/>
     </row>
     <row r="693" ht="16.35" spans="8:8">
-      <c r="H693" s="27"/>
+      <c r="H693" s="28"/>
     </row>
     <row r="694" ht="16.35" spans="8:8">
-      <c r="H694" s="27"/>
+      <c r="H694" s="28"/>
     </row>
     <row r="695" ht="16.35" spans="8:8">
-      <c r="H695" s="27"/>
+      <c r="H695" s="28"/>
     </row>
     <row r="696" ht="16.35" spans="8:8">
-      <c r="H696" s="27"/>
+      <c r="H696" s="28"/>
     </row>
     <row r="697" ht="16.35" spans="8:8">
-      <c r="H697" s="27"/>
+      <c r="H697" s="28"/>
     </row>
     <row r="698" ht="16.35" spans="8:8">
-      <c r="H698" s="27"/>
+      <c r="H698" s="28"/>
     </row>
     <row r="699" ht="16.35" spans="8:8">
-      <c r="H699" s="27"/>
+      <c r="H699" s="28"/>
     </row>
     <row r="700" ht="16.35" spans="8:8">
-      <c r="H700" s="27"/>
+      <c r="H700" s="28"/>
     </row>
     <row r="701" ht="16.35" spans="8:8">
-      <c r="H701" s="27"/>
+      <c r="H701" s="28"/>
     </row>
     <row r="702" ht="16.35" spans="8:8">
-      <c r="H702" s="27"/>
+      <c r="H702" s="28"/>
     </row>
     <row r="703" ht="16.35" spans="8:8">
-      <c r="H703" s="27"/>
+      <c r="H703" s="28"/>
     </row>
     <row r="704" ht="16.35" spans="8:8">
-      <c r="H704" s="27"/>
+      <c r="H704" s="28"/>
     </row>
     <row r="705" ht="16.35" spans="8:8">
-      <c r="H705" s="27"/>
+      <c r="H705" s="28"/>
     </row>
     <row r="706" ht="16.35" spans="8:8">
-      <c r="H706" s="27"/>
+      <c r="H706" s="28"/>
     </row>
     <row r="707" ht="16.35" spans="8:8">
-      <c r="H707" s="27"/>
+      <c r="H707" s="28"/>
     </row>
     <row r="708" ht="16.35" spans="8:8">
-      <c r="H708" s="27"/>
+      <c r="H708" s="28"/>
     </row>
     <row r="709" ht="16.35" spans="8:8">
-      <c r="H709" s="27"/>
+      <c r="H709" s="28"/>
     </row>
     <row r="710" ht="16.35" spans="8:8">
-      <c r="H710" s="27"/>
+      <c r="H710" s="28"/>
     </row>
     <row r="711" ht="16.35" spans="8:8">
-      <c r="H711" s="27"/>
+      <c r="H711" s="28"/>
     </row>
     <row r="712" ht="16.35" spans="8:8">
-      <c r="H712" s="27"/>
+      <c r="H712" s="28"/>
     </row>
     <row r="713" ht="16.35" spans="8:8">
-      <c r="H713" s="27"/>
+      <c r="H713" s="28"/>
     </row>
     <row r="714" ht="16.35" spans="8:8">
-      <c r="H714" s="27"/>
+      <c r="H714" s="28"/>
     </row>
     <row r="715" ht="16.35" spans="8:8">
-      <c r="H715" s="27"/>
+      <c r="H715" s="28"/>
     </row>
     <row r="716" ht="16.35" spans="8:8">
-      <c r="H716" s="27"/>
+      <c r="H716" s="28"/>
     </row>
     <row r="717" ht="16.35" spans="8:8">
-      <c r="H717" s="27"/>
+      <c r="H717" s="28"/>
     </row>
     <row r="718" ht="16.35" spans="8:8">
-      <c r="H718" s="27"/>
+      <c r="H718" s="28"/>
     </row>
     <row r="719" ht="16.35" spans="8:8">
-      <c r="H719" s="27"/>
+      <c r="H719" s="28"/>
     </row>
     <row r="720" ht="16.35" spans="8:8">
-      <c r="H720" s="27"/>
+      <c r="H720" s="28"/>
     </row>
     <row r="721" ht="16.35" spans="8:8">
-      <c r="H721" s="27"/>
+      <c r="H721" s="28"/>
     </row>
     <row r="722" ht="16.35" spans="8:8">
-      <c r="H722" s="27"/>
+      <c r="H722" s="28"/>
     </row>
     <row r="723" ht="16.35" spans="8:8">
-      <c r="H723" s="27"/>
+      <c r="H723" s="28"/>
     </row>
     <row r="724" ht="16.35" spans="8:8">
-      <c r="H724" s="27"/>
+      <c r="H724" s="28"/>
     </row>
     <row r="725" ht="16.35" spans="8:8">
-      <c r="H725" s="27"/>
+      <c r="H725" s="28"/>
     </row>
     <row r="726" ht="16.35" spans="8:8">
-      <c r="H726" s="27"/>
+      <c r="H726" s="28"/>
     </row>
     <row r="727" ht="16.35" spans="8:8">
-      <c r="H727" s="27"/>
+      <c r="H727" s="28"/>
     </row>
     <row r="728" ht="16.35" spans="8:8">
-      <c r="H728" s="27"/>
+      <c r="H728" s="28"/>
     </row>
     <row r="729" ht="16.35" spans="8:8">
-      <c r="H729" s="27"/>
+      <c r="H729" s="28"/>
     </row>
     <row r="730" ht="16.35" spans="8:8">
-      <c r="H730" s="27"/>
+      <c r="H730" s="28"/>
     </row>
     <row r="731" ht="16.35" spans="8:8">
-      <c r="H731" s="27"/>
+      <c r="H731" s="28"/>
     </row>
     <row r="732" ht="16.35" spans="8:8">
-      <c r="H732" s="27"/>
+      <c r="H732" s="28"/>
     </row>
     <row r="733" ht="16.35" spans="8:8">
-      <c r="H733" s="27"/>
+      <c r="H733" s="28"/>
     </row>
     <row r="734" ht="16.35" spans="8:8">
-      <c r="H734" s="27"/>
+      <c r="H734" s="28"/>
     </row>
     <row r="735" ht="16.35" spans="8:8">
-      <c r="H735" s="27"/>
+      <c r="H735" s="28"/>
     </row>
     <row r="736" ht="16.35" spans="8:8">
-      <c r="H736" s="27"/>
+      <c r="H736" s="28"/>
     </row>
     <row r="737" ht="16.35" spans="8:8">
-      <c r="H737" s="27"/>
+      <c r="H737" s="28"/>
     </row>
     <row r="738" ht="16.35" spans="8:8">
-      <c r="H738" s="27"/>
+      <c r="H738" s="28"/>
     </row>
     <row r="739" ht="16.35" spans="8:8">
-      <c r="H739" s="27"/>
+      <c r="H739" s="28"/>
     </row>
     <row r="740" ht="16.35" spans="8:8">
-      <c r="H740" s="27"/>
+      <c r="H740" s="28"/>
     </row>
     <row r="741" ht="16.35" spans="8:8">
-      <c r="H741" s="27"/>
+      <c r="H741" s="28"/>
     </row>
     <row r="742" ht="16.35" spans="8:8">
-      <c r="H742" s="27"/>
+      <c r="H742" s="28"/>
     </row>
     <row r="743" ht="16.35" spans="8:8">
-      <c r="H743" s="27"/>
+      <c r="H743" s="28"/>
     </row>
     <row r="744" ht="16.35" spans="8:8">
-      <c r="H744" s="27"/>
+      <c r="H744" s="28"/>
     </row>
     <row r="745" ht="16.35" spans="8:8">
-      <c r="H745" s="27"/>
+      <c r="H745" s="28"/>
     </row>
     <row r="746" ht="16.35" spans="8:8">
-      <c r="H746" s="27"/>
+      <c r="H746" s="28"/>
     </row>
     <row r="747" ht="16.35" spans="8:8">
-      <c r="H747" s="27"/>
+      <c r="H747" s="28"/>
     </row>
     <row r="748" ht="16.35" spans="8:8">
-      <c r="H748" s="27"/>
+      <c r="H748" s="28"/>
     </row>
     <row r="749" ht="16.35" spans="8:8">
-      <c r="H749" s="27"/>
+      <c r="H749" s="28"/>
     </row>
     <row r="750" ht="16.35" spans="8:8">
-      <c r="H750" s="27"/>
+      <c r="H750" s="28"/>
     </row>
     <row r="751" ht="16.35" spans="8:8">
-      <c r="H751" s="27"/>
+      <c r="H751" s="28"/>
     </row>
     <row r="752" ht="16.35" spans="8:8">
-      <c r="H752" s="27"/>
+      <c r="H752" s="28"/>
     </row>
     <row r="753" ht="16.35" spans="8:8">
-      <c r="H753" s="27"/>
+      <c r="H753" s="28"/>
     </row>
     <row r="754" ht="16.35" spans="8:8">
-      <c r="H754" s="27"/>
+      <c r="H754" s="28"/>
     </row>
     <row r="755" ht="16.35" spans="8:8">
-      <c r="H755" s="27"/>
+      <c r="H755" s="28"/>
     </row>
     <row r="756" ht="16.35" spans="8:8">
-      <c r="H756" s="27"/>
+      <c r="H756" s="28"/>
     </row>
     <row r="757" ht="16.35" spans="8:8">
-      <c r="H757" s="27"/>
+      <c r="H757" s="28"/>
     </row>
     <row r="758" ht="16.35" spans="8:8">
-      <c r="H758" s="27"/>
+      <c r="H758" s="28"/>
     </row>
     <row r="759" ht="16.35" spans="8:8">
-      <c r="H759" s="27"/>
+      <c r="H759" s="28"/>
     </row>
     <row r="760" ht="16.35" spans="8:8">
-      <c r="H760" s="27"/>
+      <c r="H760" s="28"/>
     </row>
     <row r="761" ht="16.35" spans="8:8">
-      <c r="H761" s="27"/>
+      <c r="H761" s="28"/>
     </row>
     <row r="762" ht="16.35" spans="8:8">
-      <c r="H762" s="27"/>
+      <c r="H762" s="28"/>
     </row>
     <row r="763" ht="16.35" spans="8:8">
-      <c r="H763" s="27"/>
+      <c r="H763" s="28"/>
     </row>
     <row r="764" ht="16.35" spans="8:8">
-      <c r="H764" s="27"/>
+      <c r="H764" s="28"/>
     </row>
     <row r="765" ht="16.35" spans="8:8">
-      <c r="H765" s="27"/>
+      <c r="H765" s="28"/>
     </row>
     <row r="766" ht="16.35" spans="8:8">
-      <c r="H766" s="27"/>
+      <c r="H766" s="28"/>
     </row>
     <row r="767" ht="16.35" spans="8:8">
-      <c r="H767" s="27"/>
+      <c r="H767" s="28"/>
     </row>
     <row r="768" ht="16.35" spans="8:8">
-      <c r="H768" s="27"/>
+      <c r="H768" s="28"/>
     </row>
     <row r="769" ht="16.35" spans="8:8">
-      <c r="H769" s="27"/>
+      <c r="H769" s="28"/>
     </row>
     <row r="770" ht="16.35" spans="8:8">
-      <c r="H770" s="27"/>
+      <c r="H770" s="28"/>
     </row>
     <row r="771" ht="16.35" spans="8:8">
-      <c r="H771" s="27"/>
+      <c r="H771" s="28"/>
     </row>
     <row r="772" ht="16.35" spans="8:8">
-      <c r="H772" s="27"/>
+      <c r="H772" s="28"/>
     </row>
     <row r="773" ht="16.35" spans="8:8">
-      <c r="H773" s="27"/>
+      <c r="H773" s="28"/>
     </row>
     <row r="774" ht="16.35" spans="8:8">
-      <c r="H774" s="27"/>
+      <c r="H774" s="28"/>
     </row>
     <row r="775" ht="16.35" spans="8:8">
-      <c r="H775" s="27"/>
+      <c r="H775" s="28"/>
     </row>
     <row r="776" ht="16.35" spans="8:8">
-      <c r="H776" s="27"/>
+      <c r="H776" s="28"/>
     </row>
     <row r="777" ht="16.35" spans="8:8">
-      <c r="H777" s="27"/>
+      <c r="H777" s="28"/>
     </row>
     <row r="778" ht="16.35" spans="8:8">
-      <c r="H778" s="27"/>
+      <c r="H778" s="28"/>
     </row>
     <row r="779" ht="16.35" spans="8:8">
-      <c r="H779" s="27"/>
+      <c r="H779" s="28"/>
     </row>
     <row r="780" ht="16.35" spans="8:8">
-      <c r="H780" s="27"/>
+      <c r="H780" s="28"/>
     </row>
     <row r="781" ht="16.35" spans="8:8">
-      <c r="H781" s="27"/>
+      <c r="H781" s="28"/>
     </row>
     <row r="782" ht="16.35" spans="8:8">
-      <c r="H782" s="27"/>
+      <c r="H782" s="28"/>
     </row>
     <row r="783" ht="16.35" spans="8:8">
-      <c r="H783" s="27"/>
+      <c r="H783" s="28"/>
     </row>
     <row r="784" ht="16.35" spans="8:8">
-      <c r="H784" s="27"/>
+      <c r="H784" s="28"/>
     </row>
     <row r="785" ht="16.35" spans="8:8">
-      <c r="H785" s="27"/>
+      <c r="H785" s="28"/>
     </row>
     <row r="786" ht="16.35" spans="8:8">
-      <c r="H786" s="27"/>
+      <c r="H786" s="28"/>
     </row>
     <row r="787" ht="16.35" spans="8:8">
-      <c r="H787" s="27"/>
+      <c r="H787" s="28"/>
     </row>
     <row r="788" ht="16.35" spans="8:8">
-      <c r="H788" s="27"/>
+      <c r="H788" s="28"/>
     </row>
     <row r="789" ht="16.35" spans="8:8">
-      <c r="H789" s="27"/>
+      <c r="H789" s="28"/>
     </row>
     <row r="790" ht="16.35" spans="8:8">
-      <c r="H790" s="27"/>
+      <c r="H790" s="28"/>
     </row>
     <row r="791" ht="16.35" spans="8:8">
-      <c r="H791" s="27"/>
+      <c r="H791" s="28"/>
     </row>
     <row r="792" ht="16.35" spans="8:8">
-      <c r="H792" s="27"/>
+      <c r="H792" s="28"/>
     </row>
     <row r="793" ht="16.35" spans="8:8">
-      <c r="H793" s="27"/>
+      <c r="H793" s="28"/>
     </row>
     <row r="794" ht="16.35" spans="8:8">
-      <c r="H794" s="27"/>
+      <c r="H794" s="28"/>
     </row>
     <row r="795" ht="16.35" spans="8:8">
-      <c r="H795" s="27"/>
+      <c r="H795" s="28"/>
     </row>
     <row r="796" ht="16.35" spans="8:8">
-      <c r="H796" s="27"/>
+      <c r="H796" s="28"/>
     </row>
     <row r="797" ht="16.35" spans="8:8">
-      <c r="H797" s="27"/>
+      <c r="H797" s="28"/>
     </row>
     <row r="798" ht="16.35" spans="8:8">
-      <c r="H798" s="27"/>
+      <c r="H798" s="28"/>
     </row>
     <row r="799" ht="16.35" spans="8:8">
-      <c r="H799" s="27"/>
+      <c r="H799" s="28"/>
     </row>
     <row r="800" ht="16.35" spans="8:8">
-      <c r="H800" s="27"/>
+      <c r="H800" s="28"/>
     </row>
     <row r="801" ht="16.35" spans="8:8">
-      <c r="H801" s="27"/>
+      <c r="H801" s="28"/>
     </row>
     <row r="802" ht="16.35" spans="8:8">
-      <c r="H802" s="27"/>
+      <c r="H802" s="28"/>
     </row>
     <row r="803" ht="16.35" spans="8:8">
-      <c r="H803" s="27"/>
+      <c r="H803" s="28"/>
     </row>
     <row r="804" ht="16.35" spans="8:8">
-      <c r="H804" s="27"/>
+      <c r="H804" s="28"/>
     </row>
     <row r="805" ht="16.35" spans="8:8">
-      <c r="H805" s="27"/>
+      <c r="H805" s="28"/>
     </row>
     <row r="806" ht="16.35" spans="8:8">
-      <c r="H806" s="27"/>
+      <c r="H806" s="28"/>
     </row>
     <row r="807" ht="16.35" spans="8:8">
-      <c r="H807" s="27"/>
+      <c r="H807" s="28"/>
     </row>
     <row r="808" ht="16.35" spans="8:8">
-      <c r="H808" s="27"/>
+      <c r="H808" s="28"/>
     </row>
     <row r="809" ht="16.35" spans="8:8">
-      <c r="H809" s="27"/>
+      <c r="H809" s="28"/>
     </row>
     <row r="810" ht="16.35" spans="8:8">
-      <c r="H810" s="27"/>
+      <c r="H810" s="28"/>
     </row>
     <row r="811" ht="16.35" spans="8:8">
-      <c r="H811" s="27"/>
+      <c r="H811" s="28"/>
     </row>
     <row r="812" ht="16.35" spans="8:8">
-      <c r="H812" s="27"/>
+      <c r="H812" s="28"/>
     </row>
     <row r="813" ht="16.35" spans="8:8">
-      <c r="H813" s="27"/>
+      <c r="H813" s="28"/>
     </row>
     <row r="814" ht="16.35" spans="8:8">
-      <c r="H814" s="27"/>
+      <c r="H814" s="28"/>
     </row>
     <row r="815" ht="16.35" spans="8:8">
-      <c r="H815" s="27"/>
+      <c r="H815" s="28"/>
     </row>
     <row r="816" ht="16.35" spans="8:8">
-      <c r="H816" s="27"/>
+      <c r="H816" s="28"/>
     </row>
     <row r="817" ht="16.35" spans="8:8">
-      <c r="H817" s="27"/>
+      <c r="H817" s="28"/>
     </row>
     <row r="818" ht="16.35" spans="8:8">
-      <c r="H818" s="27"/>
+      <c r="H818" s="28"/>
     </row>
     <row r="819" ht="16.35" spans="8:8">
-      <c r="H819" s="27"/>
+      <c r="H819" s="28"/>
     </row>
     <row r="820" ht="16.35" spans="8:8">
-      <c r="H820" s="27"/>
+      <c r="H820" s="28"/>
     </row>
     <row r="821" ht="16.35" spans="8:8">
-      <c r="H821" s="27"/>
+      <c r="H821" s="28"/>
     </row>
     <row r="822" ht="16.35" spans="8:8">
-      <c r="H822" s="27"/>
+      <c r="H822" s="28"/>
     </row>
     <row r="823" ht="16.35" spans="8:8">
-      <c r="H823" s="27"/>
+      <c r="H823" s="28"/>
     </row>
     <row r="824" ht="16.35" spans="8:8">
-      <c r="H824" s="27"/>
+      <c r="H824" s="28"/>
     </row>
     <row r="825" ht="16.35" spans="8:8">
-      <c r="H825" s="27"/>
+      <c r="H825" s="28"/>
     </row>
     <row r="826" ht="16.35" spans="8:8">
-      <c r="H826" s="27"/>
+      <c r="H826" s="28"/>
     </row>
     <row r="827" ht="16.35" spans="8:8">
-      <c r="H827" s="27"/>
+      <c r="H827" s="28"/>
     </row>
     <row r="828" ht="16.35" spans="8:8">
-      <c r="H828" s="27"/>
+      <c r="H828" s="28"/>
     </row>
     <row r="829" ht="16.35" spans="8:8">
-      <c r="H829" s="27"/>
+      <c r="H829" s="28"/>
     </row>
     <row r="830" ht="16.35" spans="8:8">
-      <c r="H830" s="27"/>
+      <c r="H830" s="28"/>
     </row>
     <row r="831" ht="16.35" spans="8:8">
-      <c r="H831" s="27"/>
+      <c r="H831" s="28"/>
     </row>
     <row r="832" ht="16.35" spans="8:8">
-      <c r="H832" s="27"/>
+      <c r="H832" s="28"/>
     </row>
     <row r="833" ht="16.35" spans="8:8">
-      <c r="H833" s="27"/>
+      <c r="H833" s="28"/>
     </row>
     <row r="834" ht="16.35" spans="8:8">
-      <c r="H834" s="27"/>
+      <c r="H834" s="28"/>
     </row>
     <row r="835" ht="16.35" spans="8:8">
-      <c r="H835" s="27"/>
+      <c r="H835" s="28"/>
     </row>
     <row r="836" ht="16.35" spans="8:8">
-      <c r="H836" s="27"/>
+      <c r="H836" s="28"/>
     </row>
     <row r="837" ht="16.35" spans="8:8">
-      <c r="H837" s="27"/>
+      <c r="H837" s="28"/>
     </row>
     <row r="838" ht="16.35" spans="8:8">
-      <c r="H838" s="27"/>
+      <c r="H838" s="28"/>
     </row>
     <row r="839" ht="16.35" spans="8:8">
-      <c r="H839" s="27"/>
+      <c r="H839" s="28"/>
     </row>
     <row r="840" ht="16.35" spans="8:8">
-      <c r="H840" s="27"/>
+      <c r="H840" s="28"/>
     </row>
     <row r="841" ht="16.35" spans="8:8">
-      <c r="H841" s="27"/>
+      <c r="H841" s="28"/>
     </row>
     <row r="842" ht="16.35" spans="8:8">
-      <c r="H842" s="27"/>
+      <c r="H842" s="28"/>
     </row>
     <row r="843" ht="16.35" spans="8:8">
-      <c r="H843" s="27"/>
+      <c r="H843" s="28"/>
     </row>
     <row r="844" ht="16.35" spans="8:8">
-      <c r="H844" s="27"/>
+      <c r="H844" s="28"/>
     </row>
     <row r="845" ht="16.35" spans="8:8">
-      <c r="H845" s="27"/>
+      <c r="H845" s="28"/>
     </row>
     <row r="846" ht="16.35" spans="8:8">
-      <c r="H846" s="27"/>
+      <c r="H846" s="28"/>
     </row>
     <row r="847" ht="16.35" spans="8:8">
-      <c r="H847" s="27"/>
+      <c r="H847" s="28"/>
     </row>
     <row r="848" ht="16.35" spans="8:8">
-      <c r="H848" s="27"/>
+      <c r="H848" s="28"/>
     </row>
     <row r="849" ht="16.35" spans="8:8">
-      <c r="H849" s="27"/>
+      <c r="H849" s="28"/>
     </row>
     <row r="850" ht="16.35" spans="8:8">
-      <c r="H850" s="27"/>
+      <c r="H850" s="28"/>
     </row>
     <row r="851" ht="16.35" spans="8:8">
-      <c r="H851" s="27"/>
+      <c r="H851" s="28"/>
     </row>
     <row r="852" ht="16.35" spans="8:8">
-      <c r="H852" s="27"/>
+      <c r="H852" s="28"/>
     </row>
     <row r="853" ht="16.35" spans="8:8">
-      <c r="H853" s="27"/>
+      <c r="H853" s="28"/>
     </row>
     <row r="854" ht="16.35" spans="8:8">
-      <c r="H854" s="27"/>
+      <c r="H854" s="28"/>
     </row>
     <row r="855" ht="16.35" spans="8:8">
-      <c r="H855" s="27"/>
+      <c r="H855" s="28"/>
     </row>
     <row r="856" ht="16.35" spans="8:8">
-      <c r="H856" s="27"/>
+      <c r="H856" s="28"/>
     </row>
     <row r="857" ht="16.35" spans="8:8">
-      <c r="H857" s="27"/>
+      <c r="H857" s="28"/>
     </row>
     <row r="858" ht="16.35" spans="8:8">
-      <c r="H858" s="27"/>
+      <c r="H858" s="28"/>
     </row>
     <row r="859" ht="16.35" spans="8:8">
-      <c r="H859" s="27"/>
+      <c r="H859" s="28"/>
     </row>
     <row r="860" ht="16.35" spans="8:8">
-      <c r="H860" s="27"/>
+      <c r="H860" s="28"/>
     </row>
     <row r="861" ht="16.35" spans="8:8">
-      <c r="H861" s="27"/>
+      <c r="H861" s="28"/>
     </row>
     <row r="862" ht="16.35" spans="8:8">
-      <c r="H862" s="27"/>
+      <c r="H862" s="28"/>
     </row>
     <row r="863" ht="16.35" spans="8:8">
-      <c r="H863" s="27"/>
+      <c r="H863" s="28"/>
     </row>
     <row r="864" ht="16.35" spans="8:8">
-      <c r="H864" s="27"/>
+      <c r="H864" s="28"/>
     </row>
     <row r="865" ht="16.35" spans="8:8">
-      <c r="H865" s="27"/>
+      <c r="H865" s="28"/>
     </row>
     <row r="866" ht="16.35" spans="8:8">
-      <c r="H866" s="27"/>
+      <c r="H866" s="28"/>
     </row>
     <row r="867" ht="16.35" spans="8:8">
-      <c r="H867" s="27"/>
+      <c r="H867" s="28"/>
     </row>
     <row r="868" ht="16.35" spans="8:8">
-      <c r="H868" s="27"/>
+      <c r="H868" s="28"/>
     </row>
     <row r="869" ht="16.35" spans="8:8">
-      <c r="H869" s="27"/>
+      <c r="H869" s="28"/>
     </row>
     <row r="870" ht="16.35" spans="8:8">
-      <c r="H870" s="27"/>
+      <c r="H870" s="28"/>
     </row>
     <row r="871" ht="16.35" spans="8:8">
-      <c r="H871" s="27"/>
+      <c r="H871" s="28"/>
     </row>
     <row r="872" ht="16.35" spans="8:8">
-      <c r="H872" s="27"/>
+      <c r="H872" s="28"/>
     </row>
     <row r="873" ht="16.35" spans="8:8">
-      <c r="H873" s="27"/>
+      <c r="H873" s="28"/>
     </row>
     <row r="874" ht="16.35" spans="8:8">
-      <c r="H874" s="27"/>
+      <c r="H874" s="28"/>
     </row>
     <row r="875" ht="16.35" spans="8:8">
-      <c r="H875" s="27"/>
+      <c r="H875" s="28"/>
     </row>
     <row r="876" ht="16.35" spans="8:8">
-      <c r="H876" s="27"/>
+      <c r="H876" s="28"/>
     </row>
     <row r="877" ht="16.35" spans="8:8">
-      <c r="H877" s="27"/>
+      <c r="H877" s="28"/>
     </row>
     <row r="878" ht="16.35" spans="8:8">
-      <c r="H878" s="27"/>
+      <c r="H878" s="28"/>
     </row>
     <row r="879" ht="16.35" spans="8:8">
-      <c r="H879" s="27"/>
+      <c r="H879" s="28"/>
     </row>
     <row r="880" ht="16.35" spans="8:8">
-      <c r="H880" s="27"/>
+      <c r="H880" s="28"/>
     </row>
     <row r="881" ht="16.35" spans="8:8">
-      <c r="H881" s="27"/>
+      <c r="H881" s="28"/>
     </row>
     <row r="882" ht="16.35" spans="8:8">
-      <c r="H882" s="27"/>
+      <c r="H882" s="28"/>
     </row>
     <row r="883" ht="16.35" spans="8:8">
-      <c r="H883" s="27"/>
+      <c r="H883" s="28"/>
     </row>
     <row r="884" ht="16.35" spans="8:8">
-      <c r="H884" s="27"/>
+      <c r="H884" s="28"/>
     </row>
     <row r="885" ht="16.35" spans="8:8">
-      <c r="H885" s="27"/>
+      <c r="H885" s="28"/>
     </row>
     <row r="886" ht="16.35" spans="8:8">
-      <c r="H886" s="27"/>
+      <c r="H886" s="28"/>
     </row>
     <row r="887" ht="16.35" spans="8:8">
-      <c r="H887" s="27"/>
+      <c r="H887" s="28"/>
     </row>
     <row r="888" ht="16.35" spans="8:8">
-      <c r="H888" s="27"/>
+      <c r="H888" s="28"/>
     </row>
     <row r="889" ht="16.35" spans="8:8">
-      <c r="H889" s="27"/>
+      <c r="H889" s="28"/>
     </row>
     <row r="890" ht="16.35" spans="8:8">
-      <c r="H890" s="27"/>
+      <c r="H890" s="28"/>
     </row>
     <row r="891" ht="16.35" spans="8:8">
-      <c r="H891" s="27"/>
+      <c r="H891" s="28"/>
     </row>
     <row r="892" ht="16.35" spans="8:8">
-      <c r="H892" s="27"/>
+      <c r="H892" s="28"/>
     </row>
     <row r="893" ht="16.35" spans="8:8">
-      <c r="H893" s="27"/>
+      <c r="H893" s="28"/>
     </row>
     <row r="894" ht="16.35" spans="8:8">
-      <c r="H894" s="27"/>
+      <c r="H894" s="28"/>
     </row>
     <row r="895" ht="16.35" spans="8:8">
-      <c r="H895" s="27"/>
+      <c r="H895" s="28"/>
     </row>
     <row r="896" ht="16.35" spans="8:8">
-      <c r="H896" s="27"/>
+      <c r="H896" s="28"/>
     </row>
     <row r="897" ht="16.35" spans="8:8">
-      <c r="H897" s="27"/>
+      <c r="H897" s="28"/>
     </row>
     <row r="898" ht="16.35" spans="8:8">
-      <c r="H898" s="27"/>
+      <c r="H898" s="28"/>
     </row>
     <row r="899" ht="16.35" spans="8:8">
-      <c r="H899" s="27"/>
+      <c r="H899" s="28"/>
     </row>
     <row r="900" ht="16.35" spans="8:8">
-      <c r="H900" s="27"/>
+      <c r="H900" s="28"/>
     </row>
     <row r="901" ht="16.35" spans="8:8">
-      <c r="H901" s="27"/>
+      <c r="H901" s="28"/>
     </row>
     <row r="902" ht="16.35" spans="8:8">
-      <c r="H902" s="27"/>
+      <c r="H902" s="28"/>
     </row>
     <row r="903" ht="16.35" spans="8:8">
-      <c r="H903" s="27"/>
+      <c r="H903" s="28"/>
     </row>
     <row r="904" ht="16.35" spans="8:8">
-      <c r="H904" s="27"/>
+      <c r="H904" s="28"/>
     </row>
     <row r="905" ht="16.35" spans="8:8">
-      <c r="H905" s="27"/>
+      <c r="H905" s="28"/>
     </row>
     <row r="906" ht="16.35" spans="8:8">
-      <c r="H906" s="27"/>
+      <c r="H906" s="28"/>
     </row>
     <row r="907" ht="16.35" spans="8:8">
-      <c r="H907" s="27"/>
+      <c r="H907" s="28"/>
     </row>
     <row r="908" ht="16.35" spans="8:8">
-      <c r="H908" s="27"/>
+      <c r="H908" s="28"/>
     </row>
     <row r="909" ht="16.35" spans="8:8">
-      <c r="H909" s="27"/>
+      <c r="H909" s="28"/>
     </row>
     <row r="910" ht="16.35" spans="8:8">
-      <c r="H910" s="27"/>
+      <c r="H910" s="28"/>
     </row>
     <row r="911" ht="16.35" spans="8:8">
-      <c r="H911" s="27"/>
+      <c r="H911" s="28"/>
     </row>
     <row r="912" ht="16.35" spans="8:8">
-      <c r="H912" s="27"/>
+      <c r="H912" s="28"/>
     </row>
     <row r="913" ht="16.35" spans="8:8">
-      <c r="H913" s="27"/>
+      <c r="H913" s="28"/>
     </row>
     <row r="914" ht="16.35" spans="8:8">
-      <c r="H914" s="27"/>
+      <c r="H914" s="28"/>
     </row>
     <row r="915" ht="16.35" spans="8:8">
-      <c r="H915" s="27"/>
+      <c r="H915" s="28"/>
     </row>
     <row r="916" ht="16.35" spans="8:8">
-      <c r="H916" s="27"/>
+      <c r="H916" s="28"/>
     </row>
     <row r="917" ht="16.35" spans="8:8">
-      <c r="H917" s="27"/>
+      <c r="H917" s="28"/>
     </row>
     <row r="918" ht="16.35" spans="8:8">
-      <c r="H918" s="27"/>
+      <c r="H918" s="28"/>
     </row>
     <row r="919" ht="16.35" spans="8:8">
-      <c r="H919" s="27"/>
+      <c r="H919" s="28"/>
     </row>
     <row r="920" ht="16.35" spans="8:8">
-      <c r="H920" s="27"/>
+      <c r="H920" s="28"/>
     </row>
     <row r="921" ht="16.35" spans="8:8">
-      <c r="H921" s="27"/>
+      <c r="H921" s="28"/>
     </row>
     <row r="922" ht="16.35" spans="8:8">
-      <c r="H922" s="27"/>
+      <c r="H922" s="28"/>
     </row>
     <row r="923" ht="16.35" spans="8:8">
-      <c r="H923" s="27"/>
+      <c r="H923" s="28"/>
     </row>
     <row r="924" ht="16.35" spans="8:8">
-      <c r="H924" s="27"/>
+      <c r="H924" s="28"/>
     </row>
     <row r="925" ht="16.35" spans="8:8">
-      <c r="H925" s="27"/>
+      <c r="H925" s="28"/>
     </row>
     <row r="926" ht="16.35" spans="8:8">
-      <c r="H926" s="27"/>
+      <c r="H926" s="28"/>
     </row>
     <row r="927" ht="16.35" spans="8:8">
-      <c r="H927" s="27"/>
+      <c r="H927" s="28"/>
     </row>
     <row r="928" ht="16.35" spans="8:8">
-      <c r="H928" s="27"/>
+      <c r="H928" s="28"/>
     </row>
     <row r="929" ht="16.35" spans="8:8">
-      <c r="H929" s="27"/>
+      <c r="H929" s="28"/>
     </row>
     <row r="930" ht="16.35" spans="8:8">
-      <c r="H930" s="27"/>
+      <c r="H930" s="28"/>
     </row>
     <row r="931" ht="16.35" spans="8:8">
-      <c r="H931" s="27"/>
+      <c r="H931" s="28"/>
     </row>
     <row r="932" ht="16.35" spans="8:8">
-      <c r="H932" s="27"/>
+      <c r="H932" s="28"/>
     </row>
     <row r="933" ht="16.35" spans="8:8">
-      <c r="H933" s="27"/>
+      <c r="H933" s="28"/>
     </row>
     <row r="934" ht="16.35" spans="8:8">
-      <c r="H934" s="27"/>
+      <c r="H934" s="28"/>
     </row>
     <row r="935" ht="16.35" spans="8:8">
-      <c r="H935" s="27"/>
+      <c r="H935" s="28"/>
     </row>
     <row r="936" ht="16.35" spans="8:8">
-      <c r="H936" s="27"/>
+      <c r="H936" s="28"/>
     </row>
     <row r="937" ht="16.35" spans="8:8">
-      <c r="H937" s="27"/>
+      <c r="H937" s="28"/>
     </row>
     <row r="938" ht="16.35" spans="8:8">
-      <c r="H938" s="27"/>
+      <c r="H938" s="28"/>
     </row>
     <row r="939" ht="16.35" spans="8:8">
-      <c r="H939" s="27"/>
+      <c r="H939" s="28"/>
     </row>
     <row r="940" ht="16.35" spans="8:8">
-      <c r="H940" s="27"/>
+      <c r="H940" s="28"/>
     </row>
     <row r="941" ht="16.35" spans="8:8">
-      <c r="H941" s="27"/>
+      <c r="H941" s="28"/>
     </row>
     <row r="942" ht="16.35" spans="8:8">
-      <c r="H942" s="27"/>
+      <c r="H942" s="28"/>
     </row>
     <row r="943" ht="16.35" spans="8:8">
-      <c r="H943" s="27"/>
+      <c r="H943" s="28"/>
     </row>
     <row r="944" ht="16.35" spans="8:8">
-      <c r="H944" s="27"/>
+      <c r="H944" s="28"/>
     </row>
     <row r="945" ht="16.35" spans="8:8">
-      <c r="H945" s="27"/>
+      <c r="H945" s="28"/>
     </row>
     <row r="946" ht="16.35" spans="8:8">
-      <c r="H946" s="27"/>
+      <c r="H946" s="28"/>
     </row>
     <row r="947" ht="16.35" spans="8:8">
-      <c r="H947" s="27"/>
+      <c r="H947" s="28"/>
     </row>
     <row r="948" ht="16.35" spans="8:8">
-      <c r="H948" s="27"/>
+      <c r="H948" s="28"/>
     </row>
     <row r="949" ht="16.35" spans="8:8">
-      <c r="H949" s="27"/>
+      <c r="H949" s="28"/>
     </row>
     <row r="950" ht="16.35" spans="8:8">
-      <c r="H950" s="27"/>
+      <c r="H950" s="28"/>
     </row>
     <row r="951" ht="16.35" spans="8:8">
-      <c r="H951" s="27"/>
+      <c r="H951" s="28"/>
     </row>
     <row r="952" ht="16.35" spans="8:8">
-      <c r="H952" s="27"/>
+      <c r="H952" s="28"/>
     </row>
     <row r="953" ht="16.35" spans="8:8">
-      <c r="H953" s="27"/>
+      <c r="H953" s="28"/>
     </row>
     <row r="954" ht="16.35" spans="8:8">
-      <c r="H954" s="27"/>
+      <c r="H954" s="28"/>
     </row>
     <row r="955" ht="16.35" spans="8:8">
-      <c r="H955" s="27"/>
+      <c r="H955" s="28"/>
     </row>
     <row r="956" ht="16.35" spans="8:8">
-      <c r="H956" s="27"/>
+      <c r="H956" s="28"/>
     </row>
     <row r="957" ht="16.35" spans="8:8">
-      <c r="H957" s="27"/>
+      <c r="H957" s="28"/>
     </row>
     <row r="958" ht="16.35" spans="8:8">
-      <c r="H958" s="27"/>
+      <c r="H958" s="28"/>
     </row>
     <row r="959" ht="16.35" spans="8:8">
-      <c r="H959" s="27"/>
+      <c r="H959" s="28"/>
     </row>
     <row r="960" ht="16.35" spans="8:8">
-      <c r="H960" s="27"/>
+      <c r="H960" s="28"/>
     </row>
     <row r="961" ht="16.35" spans="8:8">
-      <c r="H961" s="27"/>
+      <c r="H961" s="28"/>
     </row>
     <row r="962" ht="16.35" spans="8:8">
-      <c r="H962" s="27"/>
+      <c r="H962" s="28"/>
     </row>
     <row r="963" ht="16.35" spans="8:8">
-      <c r="H963" s="27"/>
+      <c r="H963" s="28"/>
     </row>
     <row r="964" ht="16.35" spans="8:8">
-      <c r="H964" s="27"/>
+      <c r="H964" s="28"/>
     </row>
     <row r="965" ht="16.35" spans="8:8">
-      <c r="H965" s="27"/>
+      <c r="H965" s="28"/>
     </row>
     <row r="966" ht="16.35" spans="8:8">
-      <c r="H966" s="27"/>
+      <c r="H966" s="28"/>
     </row>
     <row r="967" ht="16.35" spans="8:8">
-      <c r="H967" s="27"/>
+      <c r="H967" s="28"/>
     </row>
     <row r="968" ht="16.35" spans="8:8">
-      <c r="H968" s="27"/>
+      <c r="H968" s="28"/>
     </row>
     <row r="969" ht="16.35" spans="8:8">
-      <c r="H969" s="27"/>
+      <c r="H969" s="28"/>
     </row>
     <row r="970" ht="16.35" spans="8:8">
-      <c r="H970" s="27"/>
+      <c r="H970" s="28"/>
     </row>
     <row r="971" ht="16.35" spans="8:8">
-      <c r="H971" s="27"/>
+      <c r="H971" s="28"/>
     </row>
     <row r="972" ht="16.35" spans="8:8">
-      <c r="H972" s="27"/>
+      <c r="H972" s="28"/>
     </row>
     <row r="973" ht="16.35" spans="8:8">
-      <c r="H973" s="27"/>
+      <c r="H973" s="28"/>
     </row>
     <row r="974" ht="16.35" spans="8:8">
-      <c r="H974" s="27"/>
+      <c r="H974" s="28"/>
     </row>
     <row r="975" ht="16.35" spans="8:8">
-      <c r="H975" s="27"/>
+      <c r="H975" s="28"/>
     </row>
     <row r="976" ht="16.35" spans="8:8">
-      <c r="H976" s="27"/>
+      <c r="H976" s="28"/>
     </row>
     <row r="977" ht="16.35" spans="8:8">
-      <c r="H977" s="27"/>
+      <c r="H977" s="28"/>
     </row>
     <row r="978" ht="16.35" spans="8:8">
-      <c r="H978" s="27"/>
+      <c r="H978" s="28"/>
     </row>
     <row r="979" ht="16.35" spans="8:8">
-      <c r="H979" s="27"/>
+      <c r="H979" s="28"/>
     </row>
     <row r="980" ht="16.35" spans="8:8">
-      <c r="H980" s="27"/>
+      <c r="H980" s="28"/>
     </row>
     <row r="981" ht="16.35" spans="8:8">
-      <c r="H981" s="27"/>
+      <c r="H981" s="28"/>
     </row>
     <row r="982" ht="16.35" spans="8:8">
-      <c r="H982" s="27"/>
+      <c r="H982" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
